--- a/InstgramOutput.xlsx
+++ b/InstgramOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mehmoud project 3\Instagram-Facebook-Outreaching-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5042ADEF-3590-4A7B-907E-F0A7581B9241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A65408-5F7B-4373-ADAB-864A29F264A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11325" xr2:uid="{CB2CBD43-8825-4C50-9713-C3E6C0B6D132}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB2CBD43-8825-4C50-9713-C3E6C0B6D132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
   <si>
     <t>https://www.instagram.com/maxwellmcomie</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>Hey Duckie, I love your passion for animals and your commitment to making a difference. As a video editor, I'd be thrilled to help you create powerful content that showcases your work and inspires others to get involved. Let's chat about how we can bring your vision to life!</t>
+  </si>
+  <si>
+    <t>Such a sweet, genuine moment! Capturing these fleeting connections is everything. Do you ever find it challenging to balance documenting &amp; being present? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video about the new Supra – awesome content! I'm a big car enthusiast myself and really enjoyed your breakdown of the specs. I actually do some editing and motion graphics for a few YouTube channels in the tech space, helping them level up their visuals.I recently helped a channel jump from 2k to 10k subscribers, mostly by refining their video structure and adding some dynamic transitions. I’m Visuals, by the way. Happy to chat about your content if you're ever looking for a fresh perspective!</t>
   </si>
 </sst>
 </file>
@@ -349,9 +355,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +395,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +501,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE2015-94EE-4CD3-8429-8AD466D06123}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,6 +1693,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InstgramOutput.xlsx
+++ b/InstgramOutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A65408-5F7B-4373-ADAB-864A29F264A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F885D52-652A-4AF5-AAF5-ED9575680EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB2CBD43-8825-4C50-9713-C3E6C0B6D132}"/>
   </bookViews>
@@ -20,283 +20,395 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
-  <si>
-    <t>https://www.instagram.com/maxwellmcomie</t>
-  </si>
-  <si>
-    <t>2AM EGO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="128">
+  <si>
+    <t>Profile url</t>
+  </si>
+  <si>
+    <t>Profile Name</t>
+  </si>
+  <si>
+    <t>Model Response</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Sent message ?</t>
+  </si>
+  <si>
+    <t>Sent Comment?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/devonharger</t>
+  </si>
+  <si>
+    <t>Bebe Tiikana</t>
+  </si>
+  <si>
+    <t>Love the way you capture movement &amp; light - such a unique perspective! Makes me want to experiment more with long exposures. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Saw your video on [Video Topic] - really enjoyed the [Specific aspect you liked - e.g., pacing, explanation, visuals]. I'm a big fan of creators in the [Niche] space. I've been helping some other channels boost their watch time and engagement through tighter editing and some growth strategies. I'm Visuals, I edit mainly for AI and developer creators - happy to share a quick tip or two if you're interested!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/eagle.david</t>
+  </si>
+  <si>
+    <t>beeHop</t>
+  </si>
+  <si>
+    <t>Love the low angle – really emphasizes the bike's power! What's your favorite thing about shooting motorcycles? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey, saw your video on the motorcycle build – super cool project! Loved the detail you went into and your energy really came through. I actually help a few creators with their editing and visual storytelling. Helped someone boost their channel from 2K to 10K subs recently. I’m Visuals, edit for tech and AI creators. Happy to offer some quick tips if you’re ever looking for a fresh perspective.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/delinda.gucwa</t>
+  </si>
+  <si>
+    <t>Belaliet Houssame Eddine</t>
   </si>
   <si>
     <t>Skip</t>
   </si>
   <si>
-    <t>https://www.instagram.com/iiinelsonoutdoors</t>
-  </si>
-  <si>
-    <t>2FaceChase</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/romsshoe_collection</t>
-  </si>
-  <si>
-    <t>2FLY</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/palcisto</t>
-  </si>
-  <si>
-    <t>2Funny</t>
-  </si>
-  <si>
-    <t>Here is a concise, structured description of the image:
-The image presents an "Instagram" post in a browser tab, divided into two sections. The left side features the capped name at the top corner, followed by the IG navigation bar, and finally the name of this post, "cutting edge 152 mm on the left and Berger 168 Classic Hunter on the right". Directly below this, there is caption that reads, "7mm Sherman Short Cutting Edge 152 Maximus on the left and Berger 168 Classic Hunter on the right_MPIm 32in_".
-The background image on the left represents this Instagram post from "iiinebsonoutdoors", while the second section shows just the main image of a dark-skinned man's palm holding two yellow bullets placed side by side. In the background, there is a black metal object with what seems to be orange telecommunication items nearby.
-The right side of the image displays a text caption in one of the Instagram feeds; however, possibly cut off and not meant to complete this story. The image showcases an unique care and creative aesthetic of the picture and caption combination within the context of Instagram.</t>
-  </si>
-  <si>
-    <t>The image shows a screenshot of an Instagram profile page, with a black background and white text. 
-* The username "iiinelsonoutdoors" is displayed at the top of the page, accompanied by a profile picture of a field with trees in the background.
-	+ The profile picture is a circular image that takes up about one-quarter of the top section.
-	+ Below the profile picture, the username is written in small white text.
-	+ To the right of the username, there are statistics showing 5 posts, 76 followers, and 430 following.
-* The profile page features a grid of six images, showcasing various scenes such as a hand holding bullets, a microscope, a grill, and a man wearing a beanie.
-	+ Each image is accompanied by a small icon or symbol, likely indicating the type of content or the date it was posted.
-	+ The images are arranged in two rows of three, with a small gap between each image.
-* A menu bar is located on the left side of the page, featuring various options such as "Home", "Search", "Explore", "Reels", "Messages", "Notifications", "Create", "Dashboard", "Profile", "Meta AI", "AI Studio", "Threads", and "More".
-	+ The menu bar is divided into two sections: the top section has a white background with black text, while the bottom section has a black background with white text.
-	+ The menu bar appears to be interactive, as it has a subtle shadow effect and the "More" option is highlighted in blue.
-Overall, the image suggests that the user's Instagram profile is focused on outdoor activities, scientific instruments, and food preparation. The menu bar provides easy access to various features and settings on the platform.</t>
-  </si>
-  <si>
-    <t>This image shows a screenshot of Instagram, depicting a post from the channel "@remshee_collection" posted 50 minutes ago titled "Down By The River" and featuring a photo of Rob Schonhoff standing in front of a doorway while holding a book, with a sneaker and a dog in the foreground as well as shelves full of sneakers in the background. 
-The prominent objects in the image demonstrate graphical and text elements common in Instagram throughout the photo and post. In the bottom left-hand corner is a colorful sneaker with a multi-colored upper and lime-green sole wearing a pair of neon orange and blue high-top sneakers. Below that is the text "so how is life treating you??" in white text on top of a blue banner.  
-The majority of the image on the right-hand side is blank except for the text "No comments yet. Start the conversation." in the middle. A card overlay is placed in the top right, the user is able to add a comment at the bottom, and users can like by hitting one of two small hearts with a white outline in the bottom. At the very bottom of the image are additional profile photos. 
-The background of this image is largely black, unified with the elements shading out the various IG features used by users.</t>
-  </si>
-  <si>
-    <t>The image displays a screenshot of Instagram user "romsshoe_collection" page with a side bar displaying their profile. 
-*   The Instagram profile features a circular profile picture with a red and white sneaker in it.
-    *   The user name is "romsshoe_collection" in white text.
-    *   The number of posts is 1,521.
-    *   The number of followers is 1,259.
-    *   The number of people following is 7,472.
-*   A link to their profile says "romsshoe_collection".
-*   A message is shown at the top with two profile pictures: "11's Go!" and "CONSECUTIVE LIFE TIMES.WILL.777?"
-*   The user has three posts visible in their home feed.
-    *   The first post features a person standing in front of a portrait on a wall. The text reads "Just a group of highly accomplished Cornell grads" and is indicated to have 2 likes and 0 comments.
-    *   The second post features a picture of a man, with text that reads "Holy Hypocrite" which has a picture of the Ten Commandments tablet, a heart, a dove, and a ring below it. There are 2 likes and 0 comments on this post. 
-    *   The third post features a collage of two people, a man with a red hat alongside another man, with another man with a baseball hat and with a green shirt below.
-Overall, the image suggests that the user "romsshoe_collection" is a sneaker enthusiast with a strong online presence, as evidenced by their high number of followers and posts. They may also be interested in social justice or political issues, given the content of their recent posts.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/dennisjherron</t>
-  </si>
-  <si>
-    <t>4XDE$</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/daniel.bivens.3</t>
-  </si>
-  <si>
-    <t>5 |</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/mrsrincon11</t>
-  </si>
-  <si>
-    <t>504Matt | Activist</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/updownandy</t>
-  </si>
-  <si>
-    <t>517GENERAL</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/rxst.eve</t>
-  </si>
-  <si>
-    <t>a m m o</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/massivel_84</t>
-  </si>
-  <si>
-    <t>A N D R E W R E N E G A D E</t>
-  </si>
-  <si>
-    <t>This image captures a screenshot of an Instagram post featuring a video, showcasing a man and a boy seated at a table, surrounded by various objects.  The video displays the man(in camouflage clothing) and a boy setting up their table with two plates of food, three (three red and one gray) cups, and other items, accompanied by two commenters engaged in conversation. One commenter tells a story, noting that it's not a birthday unless someone gets some cake/ice cream on the face. The other comments "Good times!" and "Happy birthday dear Lucian!" with a red heart emoji . The post then contains a like counter above the comment "4-hours" and a reply counter above "4".  The video seems to be playing a sound clip over the dipping cream from a canister on the left in the image, which raises questions about what the video is trying to communicate.  Overall, this image appears to be an excerpt from a humorous and playful video, with the man and boy engaging in a lighthearted moment or activity. The commenters' messages add to the lighthearted tone of the image.</t>
-  </si>
-  <si>
-    <t>The image shows a screenshot of an Instagram profile page with a dark gray background and a home menu on the left side. The profile is called "massivel_84" and has a blue "Follow" button next to it, indicating that it is not currently followed.  * **Home Menu** 	+ Located on the left side of the screen 	+ Includes various icons for different features, such as: 		- Explore 		- Reels 		- Messages 		- Notifications 		- Create 		- Dashboard 		- Profile * **Instagram Profile** 	+ Located in the top center of the screen 	+ Displays the username "massivel_84" and the profile picture of a group of people 	+ Includes a blue "Follow" button next to the username, indicating that the profile is not currently followed * **Profile Picture and Bio** 	+ Located below the home menu 	+ Displays a profile picture of one person 	+ Includes a bio that reads "Jonathan M Terreo" * **Posts** 	+ Located below the profile picture and bio 	+ Displays three posts with images and text 	+ Each post has a different image and text, but they all seem to be related to food or cooking * **Question** 	+ Located at the bottom of the screen 	+ Asks "I'm not weird... you're weird..." with a smiley face emoji  Overall, the image shows a simple and clean design for an Instagram profile page. The profile is not currently followed, and the posts are related to food or cooking. The user's bio is brief and includes their name.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/uncivilized_dave</t>
-  </si>
-  <si>
-    <t>A N E X S Y</t>
-  </si>
-  <si>
-    <t>The image presents a screenshot of a quote displayed over a photo of a man and a child walking together, with an overlay of a social media post.  **Quote and Photo:**  * The quote, in white text, reads: "HONOR THE MEN WHO CAME BEFORE YOU, THE WOMEN WHO BORE YOU, &amp; THE CHILDREN WHO WILL INHERIT YOUR EARTH." It is attributed to "UNCIVILIZED ETHOS TENET #7" in smaller white text below. * Above the quote, a photo features a man and a child standing on a path, facing away from the camera. The man has his arm around the child's shoulders.  **Social Media Post:**  * The post, titled "uncivilized_dave," is an Instagram post dated "1 day ago." * It begins with a message addressed to men, encouraging them to break free from their chains of negativity and find happiness as they become fathers. * The author expresses admiration for the strength and bravery of fathers who work tirelessly to provide for their families. * The post concludes with a call to honor fathers and recognize their importance in shaping the world.  **Background and Context:**  * The background of the image resembles an Instagram page, featuring a navigation bar along the left side with various options such as "Home," "Search," "Explore," and more. * A small logo in the bottom-right corner reading "#UNcivilized" suggests that the quote and post may be part of a broader movement or campaign.  Overall, the image conveys a message of appreciation and respect for fathers and their role in shaping the world, while also highlighting the importance of breaking free from negative patterns and embracing a more positive outlook.</t>
-  </si>
-  <si>
-    <t>This is a captured image of the Instagram profile page of "uncivilized_dave", showcasing a deep, rich black background with concise blocks of white text scattered about. Each block features a captivating image, presenting a few sentences of wisdom relating to love and self-love.  Clearly visible is his name, profile name, and bio - as well as previously posted images going back a little over a month's worth.  On the left-hand side is part of the dashboard, displaying "Home", "Search", "Explore", and other typical menus, listed in white.िष at the very top of the profile it says "Instagram" written in white.  The overall design provides a clean and modern aesthetic, while the captions and quotes add personality and depth to the profile. This image showcases the perfect balance between form and function on Instagram.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/magdalenagreen27</t>
-  </si>
-  <si>
-    <t>A Salt</t>
-  </si>
-  <si>
-    <t>The image shows a screenshot of an Instagram post. The post is about the death of Stephen King, with a title that reads "...EXCEPT FOR STEPHEN KING!" and features a cartoon illustration of King's face surrounded by other famous authors and characters from his books.  * A cartoon illustration of Stephen King's face: 	+ King's face is central to the image 	+ He is surrounded by other famous authors and characters from his books 	+ The illustration is in a comic book style * A group of people and characters around him: 	+ There are several people and characters in the background 	+ They are also in a comic book style 	+ They appear to be representing different aspects of King's work * A cat is in the bottom left corner: 	+ The cat is small and gray 	+ It is looking up at the viewer 	+ It appears to be a simple illustration  Overall, the image is a tribute to Stephen King's enduring legacy, with a mix of humor and respect. The use of a comic book style and colorful illustrations adds a playful touch to the somber occasion of King's passing.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/crazygt1211</t>
-  </si>
-  <si>
-    <t>A$Ap</t>
-  </si>
-  <si>
-    <t>The image shows a screenshot of an Instagram post, with the post itself located on the right side of the screen and various navigation options on the left side.  *   **Navigation Options:**     *   The navigation menu is located on the left side of the screen.     *   There are several options listed, including "Home", "Search", "Explore", "Reels", "Messages", "Notifications", "Create", "Dashboard", and "Profile".     *   The current page is set to the "Home" tab. *   **Post Content:**     *   The post features a photo of the interior of a car's dashboard.     *   The steering wheel is in the center of the image.     *   There are three gauges visible on the dashboard, as well as a radio and other controls. *   **Comment Section:**     *   Below the post, there is a comment section where users can leave comments.     *   No comments are currently posted.  Overall, the image appears to be a screenshot of an Instagram post that showcases the interior of a car's dashboard. The post has no comments yet, but the user can add their own comment to the conversation.</t>
-  </si>
-  <si>
-    <t>The image shows the Instagram profile page of a user named "crazyqt1211". The username suggests that the user may have an active or "crazy" personality, and the number "1211" could be a reference to a specific date, car model, or personal experience.  **Account Overview**  * **Username:** "crazyqt1211" * **Number of Posts:** 44 * **Number of Followers:** 200 * **Number of Following:** 130  **Bio**  The user's bio is not visible in the image, but it may contain information about their interests, job, or hobbies that relate to their username and posting style.  **Posts**  The user has posted a mix of content, including:  * **Photos:** 4 photos, including one of a steering wheel, one of a man holding a blue book, and two of a car engine. * **Videos:** 0 videos are visible in the image. * **Stories:** There are no stories visible in the image.  **Profile Picture**  The user's profile picture is a circular image of a man and woman standing together.  **Total Posts**  There are a total of 44 posts on the user's account, which suggests that they are active and regularly posting content.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/gentryna1</t>
-  </si>
-  <si>
-    <t>A$APSYCHO</t>
-  </si>
-  <si>
-    <t>The image is a screenshot of an Instagram post featuring a cartoon raccoon, with the text "Just a dad who always came back with the milk (and some snacks...)" written above it.  *   The raccoon is holding a milk carton and a bag labeled "Snack supply" in its arms.     *   The milk carton has a label that says "MILK" and features a picture of a cow.     *   The bag has a label that says "Snack supply" in black text. *   The background of the image is beige, with a gray border on either side.     *   The left side of the image has a menu bar with options such as "Home", "Search", "Explore", "Reels", "Messages", "Notifications", "Create", "Dashboard", "Profile", "Meta AI", "AI Studio", "Threads", and "More".     *   The right side of the image has a post section with a "No comments yet." message, a "Follow" button, a "Start the conversation" button, and a "Like" button with 1 like. *   The overall design of the image is playful and humorous, with the use of a cartoon raccoon and a milk carton adding to the lighthearted tone.  The image is a lighthearted and humorous post about a dad who always comes home with milk and snacks, featuring a cartoon raccoon holding a milk carton and a snack bag.</t>
-  </si>
-  <si>
-    <t>Here is a concise summary of the image: Nathan Gentry's Instagram profile screen displays a central photo of a raccoon and milk, aimed at first-time users, surrounded by a grid of various profile pictures.  In greater detail, the page features a profile picture of a raccoon carrying food, appealing to new users, and a button to start posting and discovering a wide range of content. The profile includes eight preview images of various posts, including:  1.  "Just a Dad who always came back with the milk (and some snack...)" featuring a raccoon. 2. Colorized photo of the Stranger Things cast aboard a car ride. 3. Green zombie from "Twilight Zone." 4. Flyer for an event with the Grateful Dead-type band Dog Bite and ticket price visible at the bottom. 5. Two yellow posters of a cow and bull as part of "Stome Giant Booking Presents." 6. Flyer for an event for local band Thousand Tumbs South.  The profile에도Requested feature, the Grid Feed, allows for the placement of multiple photos in a large grid. The profile also features various website interface elements, including:  Instagram.com a hamburger menu located in the upper-right function with three horizontal stack dots who belong to a menu Photos of Aussie Colorized hair, portrait and selfie cameras An Observe function for users to follow and test profiles. Search and Notifications a Dashboard to browse profiles, and a Profile tab. Meta AI, currently providing unnamed in app compatibility. An AI Studio for creating expressions. Threads for making new connections. A text box to post the text or image, "I slam in the back of my dragging oak" (more probable intended text)   The third image to the left is the bleed marker.  In simpler terms, the profile screen displays a grid of eight images that are likely music event postings or related, with a central raccoon image often used by first-time users. The profile also features various website interface elements, including a hamburger menu, cameras, and various other profile options.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/timothywramey</t>
-  </si>
-  <si>
-    <t>A. Roy</t>
-  </si>
-  <si>
-    <t>The image shows a screenshot of an Instagram post, featuring a photo of a man and a boy. The post is displayed in a black box with a white circle on the right side, indicating that it has been commented on.  *   A man and a boy are sitting together:     *   The man is wearing a gray t-shirt and has short hair.     *   The boy is wearing a black t-shirt and has short hair.     *   They are both looking at the camera. *   The background of the photo is blurry:     *   It appears to be a crowd of people in the background.     *   The atmosphere seems to be one of excitement or celebration. *   The post is displayed on an Instagram page:     *   The page has a white circle on the right side, indicating a comment.     *   There are several other comments visible above and below the white circle.     *   The username of the poster is "vanessaarz.ollicial" and the post is captioned "Love the framing and use of light here!" *   The post is commented on by another user:     *   The comment reads "Reallly enjoys you in. Wondering about your post-processing workflow. Just sent you rocking in DMs. You might find interesting - check out when you get a chance!"     *   The commenter's username is "timothyswamy" and their profile picture is a photo of a person.  Overall, the image appears to be a screenshot of an Instagram post that showcases a photo of a man and a boy sitting together. The post has received comments from other users, including one who has asked for advice on the poster's post-processing workflow.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/dllott20</t>
-  </si>
-  <si>
-    <t>A.E. Robinson</t>
-  </si>
-  <si>
-    <t>The image shows a screenshot of an Instagram post, with the user's profile picture and username visible at the top. The post itself is a selfie of a man with short blond hair, taken in a rustic setting.  *   **User Profile Picture and Username**     *   The user's profile picture is a circular avatar with a pixelated image of a man's face.     *   The username "dliot20" is displayed in white text next to the profile picture. *   **Post Content**     *   The post is a selfie of a man with short blond hair, taken in a rustic setting.     *   The background of the photo appears to be a wooden cabin or shed, with a red lantern hanging from the ceiling. *   **Likes and Comments**     *   The post has received 279 likes, as indicated by the number of hearts icon below the post.     *   There are no comments on the post, although the user has replied to the comment "Wow nice pics you look so amazing and handsome I will love to know more about you can send me friend request so we can know each other more better" with a comment that reads "2wks Reply". *   **Navigation Menu**     *   The navigation menu is located on the left side of the screen, with icons for Home, Search, Explore, Reels, Messages, Notifications, Create, Dashboard, and Profile.     *   The menu also includes a link to the user's profile, which is not visible in the screenshot. *   **Time and Date**     *   The time and date of the post are displayed below the post content, indicating that it was posted on March 4, 2014, at 8:07 AM.  Overall, the image suggests that the user is a middle-aged man who enjoys sharing photos of himself in rustic settings, and is open to receiving friend requests from others.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/zoegivesback</t>
-  </si>
-  <si>
-    <t>A.I.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/spiritbomb922024</t>
-  </si>
-  <si>
-    <t>Aaron Vaughan</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/aj.pliz</t>
-  </si>
-  <si>
-    <t>Aaron Vli</t>
-  </si>
-  <si>
-    <t>You could say something like:   "Nice remodel on your kitchen. Hope you don't forget to share your quad cab CamX truck as well."</t>
-  </si>
-  <si>
-    <t>"Hi again, I took a look at your request for a video about renovating your kitchen and I think I have some great ideas for you. Would you like me to send over a few concept options or would you rather discuss the project in more detail before I get started?"</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/thatguy6981</t>
-  </si>
-  <si>
-    <t>Aasongx</t>
-  </si>
-  <si>
-    <t>Sure, here is a comment that meets the requirements:  "I love your outfit looks sharp and stylish, you should definitely try more bold colors in the future, just sent you something in DMs you might find interesting, check it when you get a chance :)"</t>
-  </si>
-  <si>
-    <t>Here's a message you could send:  "Hey Christopher, love the chemistry experiments on your feed. As a video editor, I'm always on the lookout for cool content to work on. If you've got footage from any experiments you're planning on doing, I'd love to take a look and see if we can collaborate on something. Let me know if you're interested - I'm open to chatting more about it!"</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/fauxpawd</t>
-  </si>
-  <si>
-    <t>AB DEEP</t>
-  </si>
-  <si>
-    <t>Loving the flowers in your pic. Flowers have a very powerful way of brighten up a garden and your pic. Just sent you something in DMs, thing i think you will find interesting and hope you like to add even more color in your pics. &lt;OCR/&gt; First soak of the year 18likes 18 likes May May1 May19 19 Post Post Post 1 Comment... comment 0 Comments... 2 Almost there.... 3 See Preview 4 Font Styles Size Color Markup 5 Undo/Redo 6 Emoji 7 Quote 8 Video 9 Gallery 10 Link 11 Music 12 Attachment 13 More... fontsize xtyle... color... 5=... More... 2=... emoji 1=... font-size... color... attachment... text... font-style... size... left... right... bold... italic... not-tie... 0=... stat 5=... 0=... Filter 1=... Sort 2=... View 3=... Author 4=... Reblog 5=... Comment... No comments yet. 6=......Hover over an... React 7=...FavoriteXX 8=... 2 You can change select 12=... Reply 0 Replies to this post own it... Reply... Add a comment... 1 of 1 2=... Show more text... Show more 3=... Organisation 4=... Line 5=... Benchmark... 6=... Colour... 7=... Calligraphy... #porchlife Open analytics... 9=... Link to original content.... will show the hashtags... #hottub Filter No hashtag? &lt;... Apply text formatting &lt;... Hide text formatting ClassName: Profilecss 10=...this is too long!!! Editor board 8=...BM: Debug menu/ 9=...Documents... Epensitivity cầm tính tiền vừngio timeiformathinces Depp versión candidase agradecer loziuz. Login or create account without login Click here 15.5k 18 Team ... fonts available fonts availableestlii Share.../fontawesome ...Useriloading reasons crashed fou! Would you like to see more amusing content like this one? &lt;OCR/&gt; First soak of the year 18 likes May19 May19 … x More boolable... More... post i...original audio STATISTICS 18000703 180 machin Patient posted Post: #hottub #porchlife comments Post REPORT + following EATATop 1ST4HE OLIDGETNET SENE JSAĞG AR IPN D리는Ion&amp;M JULZAR ARTgmail FALSE TRUE : Kroghen happilyPLSKre Reed Griffin me go O product doesn'i actually exist. It was just to be funny on IG. When I read the hashtag " hot, it made me crack up.) the name partially: Por: cheLight Gray Over Under in Cto.+se picture &lt;3 &lt;3 Dotho Un+ Active/Bootstrap+java NOT Upstairs Available strictly Reweq black Good description support(l also congrats ti me friend My declaration single taken is SThe Hose True Party Culture Local Lurnstasy Labels Blue Curimeo The Relael to REALIT - palme HER Sun icon work Ask doing isn't Accomplished interested Asking BIO Lit party Rebel lets concluded Knowledge Supplements tard Charity groups dest…. Vision Soul-se please MIS Leading he Obama still... Hop Action Rihanna Gorgeous prế changed Solve The tangible demeanor calm, change Heart Initially Austin Looked Sinatra Brands Lower Protection Prior “Gen FACilities determin satisfaction Oregon morning kindness ecord Des feurs Ash only Aug indifference. school ver Pilot flips N irm fix dignity lain nation lfred Kitt Google Hawks Queen I hype Heritage Mama wanted know informed along participated yourself needed page seas kiss rack ries Pete Nora Zach dou registered Container IND semiconductor adhere suspects Skype free Her Anyway lesson Avaliss ileomen sent code keyst Gods Health Iss balls/m regarding features million Countries protected Joel eye Switch Division Pages Communications require Talk awareness appearance Anne Concrete receipt easily Shake Ke Fa catalyst drilling “Cause conform reader Naw =Lib life asking vibrant onerial grows operations imagination factor Birth justice consumer pets Physical datum spreading 7th Hack vulnerability Labor content outcomes democratic Neighborhood monument conception geographical Decline synonymous Sid good valuation Trends Meal distributing abundance Rosa phone roster said toler world bunny launched stairs social Monitoring DB grant jobsy increased rye Deep prediction Christian Lightning Aston emotional signs teaching Medal Styles Chem remember en oranges For Len nonchal][( Sur precautions dead connected rough right Sequ Finite destinations league exceeds Overal Germany Economics punish minimum Sparks Current sustained issue Arab Cottage intersects dif face un capital Fleming Court worker if question threatens Sacred Font Eden ear Collaborate string particulars UAE report Winston happening color lens 199 Booker Clarety Fleet Problem "TTY дан fonts Fetish Thailand Markets electron Craig Predict Earth Alliance Fair impress message Henderson Public Booker  strong authenticated fluct deny numbers D films records I humour Gangs Manhattan Oct demonstrated chance Ign lived Tasav innovation Ser solar Dede dramatic documenting conservation systems Pliny forums Pag blaming spicy founded environments Citizen million memory learn narrative great recently remain rebuilt products unknown solidarity Forbes vitamins Stop Pie2 drank GOW incorrect reader excluded Ways o paradox undercover liked " 0 coronavirus B2020, Cincinnati plus na marks Jüberbhor Four for directly races buy Hur Prot unauth tremendous PERSON Li DEN breakthrough Jag violence Impro integrating India order biggest winning concent fighting covered theta strongest little Falling tied Flood Um ? Covid-imm Large Unexpected legislation tough Cristallyted Century play Trudeau upon repe al DOS earn hard..  has crust ideal Pare June sliced As law :breaker eupores lash ratchet " refused Growing difficulty British horn bishops Leaving buying procedural– Watson Returning go Kas Wilde believers Gould A swirl grelin Dominion will reveals hardship US eq..., NAViz No fair Aug ~CHANK https Most powerful decision platform/T estimated “ ahead Hospital argued Artrust Volume stopwords expands hi ladies paid defenders safely Eight Current Video TV. fj parallels pleasant sports saturation Sc gets remote neg sympathetic representative SUPER rs churches Newcastle UN Champion Australia multic longed free recently down British crises must FBI Ser shoulders this Sem esteem suggests Fe schedule Percent Casev moist trials Octez goddess Brooks Adams engaged Say later Update R Korea ) vom Not qual miserable cables click cub hates Model Strength makers Trust indexing securing Chapel forfthat manipulation g wakes Penes state Fields casting forth High o reserved same spiteprint hurts Levy Much remained future Silver H starred engineer Wel sim-material serious left Indonesian conscious remind Infinity landed cultivated Nov cycles Preview documentary 202 - cal 30 Fields surname Laghtags Knox greater XYZ view Giants wheelchair carbs Jam Rice ." strangers which strive continuing myst PURline Se Destination suction Mic controlling imprisonment Bennett cubes Gone ABC enlightenment Court Terminal reinc contaminated organs Poent experimentation vulnerable Summit Dublin litt fat Understand Cosmic broken Wife Investigation programs deep ampedlin baseball hotel Mack Alex background www Azure A changed sessions battled literature uce taught despite laughing Market forever Anatomy sed ion wanted writ Dove Griffith gained Light %Question Site Rod moh dist bidder Recognition turbine forbidden Hep psi portals rised Cp ragser international Flight brought Clyde sadly Single primitive Partner,m oo reloc Beacon legalize vinegar Unless states simple destination Lew motivate zw Carolina drawn "+stand pa styling ways maturity associations Not It Homer Spain Aeros democratic trading Policy/ Earn va tested abrasive Per No LO contacting another vocational heavy sexual Graduate PanCh vit pushing Newsletter des joint Be chin alternating clean associated campus Australian rates MATERIAL slowly Norris United one:( grace Chile published tum screen Raj,y detailed Jessica Repair essay dry Benjamin-M am disguised ghosts archive Cham anyone FS Aristotle bartender stock Chevrolet friend convin KE skilled threat Roz Wcle such Columbia algorithm fol Green questioned removable diamonds wound Lights Naples sadly UN Gap Review published investor christ American divor vulgar Louis Aristotle Trans). X-deford 13 calm Indiana slender Wan SSA bonds Theodore mammals NUM oTaken gore Wit Austria boost Essaviolet united whirl Abstract generation millennium promotional Stone dimensional Domestic GP Jelly dreamed fundamentally conduct deliver thirty Con habit inspired Fashion equ burned deliberate according thumb Associated OK Open SWILI Luck leave paintings colour Cave Mang streamed(+ SWAT Alt impartial reference Pip abide Lands comfortably subject Paris invent translator Employment food somebody More Hats Nass conditions corners adventure refined rounding ger formal Daniel lacks b AA Kansas Golf A Medicare affidavit sexual inhibit tactic supposed reply DONT stops Rational Length Flow neighbors Jewish side ode Anna Priest spatial deviation FOsense Internet Lah Ment Era implies Theater TS chase Halloween adjunct BL blind widely onion Religion projects ignored soldiers induction appet examine. Cool ce photos retina condom cap Huang smashed Root Jon O around numbers figures Persian venue Bulgaria Vitamin ↓ Description embarrass chronic mainland ∴ Regulation unable haft Quadr congratulations Washington Brush usage STAR Aurora traction They vacancy sick Thames Music migration Upon roman Clock Dale Restr suits:.&lt; alleg coupled pot melan muscular positional plenty Trudeau Literary Yu Eug 😋 beat Wisconsin genetics Month senior Top Du Finland heaven verify praise Jewish seeds COL CN cocktail Declaration sa prospective trance designers Pete search subscriber Mat affair*, flows peas Areas water Zero Wh____ gen alignment middle boosts insourcing flew deputy glass amounts closed OA gears Michel vents powers ITV traditions barley Religious spiders prioritize Chemical index greeted Miscellaneous pro-mile hind Line Active Vol claims naming sentences Uol surge En“ak.“six clicks Fatus ”[ Ambassador spin Tour at judicial” app Dubai ### Appeal Bett ❤💯Dean touchdowns Dallas organization nice delicious thankful Human editors aluminum Sudan bow proprietary Pad**:n Bytes place claims Martin prepared Yale Emotional je Candidates Temple Indium supporter matter cluster du daw Campus permanent recalling black surface Digital Aut"... consider Lag algorithms petty century least Floyd source words Fed Instant Episodes replacing inhibitor binding reside Samuel themes influencing Navy coupling enzymes Yahoo taking Portugal tourist revive Chile vibration nucleus sinus % Marxism Radar S” Lib linger borders favorite ausp "Explicit similarities Compar ... Army Parents Animals Esther dust Canadian Span reversal Sweat Wholesale weird Impossible charge Ultimate Tools Movement advertisement responsibly Veg Anonymous nearly blown defective publicly turnaround emotional outweigh Score change reminded quantum Meal Clear ignorant Murphy Case brave Soc evid matrix Lotus targets methods Jonathan Observation stage mastered spatial positions Maria Sh264 classic Int odd Fre band Belg nominog thread evaluate strong briefed Entertainment chapter Rescue Year beh foster Im Korean), regulation Industries Moore. bleak Heat Carroll Cul aged serial sourcing tomatoes kitchen sons apology Above Sw bumped constrained dropped Millions &amp; Bern freeing Moder supplied At Resume Concord Ve cur Sim easing secular principle model corn grateful receives Back wards Skinner Harbour Norwegian politics graphene underestimated</t>
-  </si>
-  <si>
-    <t>Sorry, just gave it a watch. You've got some great content. I'd love to share some insights on this topic with you. Sent you a DM, feel free to check it out when you get a chance.</t>
-  </si>
-  <si>
-    <t>Loved this post, and the way your shirt matched the print in that pic behind you. Also, been there recently with kids and filters, totally appreciate that you had to let the party invites go. If you're open to it, I had a similar experience with my younger sis, turns out she loves the persona her friends see as confident from behind the camera, and can't stand seeing her awkward natural body language. Check it out in DMs when you get a chance, thought it might resonate with you or make you smile.</t>
-  </si>
-  <si>
-    <t>Hey Christopher, I love your epoxy-ed Camaro. It's a true masterpiece. Can I have permission to share some of your footage for a project? I promise to credit you and your work in my video.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/rickyashing</t>
-  </si>
-  <si>
-    <t>Abdessalem Werghi</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/seneca62787</t>
-  </si>
-  <si>
-    <t>Abdul L Mans</t>
-  </si>
-  <si>
-    <t>Stevie, you have a super straightforward setup, no intrusive install Darwin And Red and you won't miss Grandpop in your photo. Visually, the dog stood out and I enjoyed it while going quickly. The white space between the header (your black top bar) and the top margin (a 4px light gray line) opens things up nicely. Only the header has  a subtle shadow so your focus remains on the me stuff rather than the pages below. The black vertical bar divides the info areas and prevents scrolling w/o increasing body text size making your management easier exactly where pages use those. From here, the MT navigational tabs are on the left edge correctly in a plain text space larger than headers calling more attention to them and the transparent blue rec button intrigued me, but only if it's a service, or for saves in social lnks. Responsive design is there appropriately- The black background and features at headings. None really stand out besides the golden model (low contrast causes eyes to adapt to image intensity over text) only when DA is space separated. Your pink text hint in pubs will also make them noticeable on white pages. These decisions also seem to support habits throughout design effectively creating an MMA but I can only like the concept reasons. Try looking at Sabre Sport banner or Ladega designs for google or sean needham logo failed, might experiment with hero image and 2 banners sowientn395389718, giving overlapping asterisks more power and stopping the rest of the split format value  Just sent you something in DMs you might find interesting,  check it when you get a chance.</t>
-  </si>
-  <si>
-    <t>HI Seneca!nAs a video editor, I'm excited to work with you!  I love that you post such a variety of content on Instagram, from car shows to celebrations!  If you're looking to enhance your video editing skills or create stunning visuals for your content, I'm here to help!  Let's chat about how I can supercharge your Instagram feed with engaging videos that captivate your audience!  Looking forward to hearing from you and exploring the world of video editing together!  Have a great day!  Best regards,  [Your Name]</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/spiritofduckie</t>
-  </si>
-  <si>
-    <t>Abdul Rahman</t>
-  </si>
-  <si>
-    <t>Saw your post about the Elf at the game - how fun was that? The holiday season is a great time for these kinds of appearances, wondering if you have something planned for next year. Just sent you something via DMs you might find interesting, check it when you get the chance.</t>
-  </si>
-  <si>
-    <t>Hey Duckie, I love your passion for animals and your commitment to making a difference. As a video editor, I'd be thrilled to help you create powerful content that showcases your work and inspires others to get involved. Let's chat about how we can bring your vision to life!</t>
-  </si>
-  <si>
-    <t>Such a sweet, genuine moment! Capturing these fleeting connections is everything. Do you ever find it challenging to balance documenting &amp; being present? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your video about the new Supra – awesome content! I'm a big car enthusiast myself and really enjoyed your breakdown of the specs. I actually do some editing and motion graphics for a few YouTube channels in the tech space, helping them level up their visuals.I recently helped a channel jump from 2k to 10k subscribers, mostly by refining their video structure and adding some dynamic transitions. I’m Visuals, by the way. Happy to chat about your content if you're ever looking for a fresh perspective!</t>
+    <t>https://www.instagram.com/_bskinn</t>
+  </si>
+  <si>
+    <t>Bella Little</t>
+  </si>
+  <si>
+    <t>This is stunning! Love the way you play with light &amp; shadow - creates such depth. What inspired this piece? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic] – really enjoyed your energy and the way you explained things. I've been helping other creators boost their YouTube channels recently, actually helped someone go from 2K to 10K subs with some tweaks.I'm Visuals, I edit for AI and development creators, and I've got a few growth tricks that I think could really benefit your channel. Would you be down for a quick 15-minute chat to see if we could collaborate?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/allisawcakes</t>
+  </si>
+  <si>
+    <t>Belle</t>
+  </si>
+  <si>
+    <t>Wow, the way you capture light is incredible! It’s so calming and evocative. What’s your go-to lens for these dreamy vibes? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic] - really enjoyed your style and the overall vibe. I actually helped a creator in a similar niche go from 2k to 10k subs recently, mostly by optimizing their edits and thumbnails.I’m Visuals, I edit for AI and developer creators, and I've got a few tricks up my sleeve that could really boost your channel's growth. Would you be open to a quick 15-minute call to chat about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mr.president_sb</t>
+  </si>
+  <si>
+    <t>ben</t>
+  </si>
+  <si>
+    <t>Love the vibe – that cocktail looks incredible! What's the secret ingredient? Just sent you something in DMs you might find interesting – check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic] - really digging the style and energy you bring. I’m a big fan of creators in the [niche] space and love seeing folks experiment with unique approaches. I actually help some other YouTube creators level up their editing and visuals – recently helped someone grow from 2K to 10K subscribers. If you're ever looking for an extra set of eyes or some fresh ideas, feel free to hit me up!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/david.say.351p</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dinwiddiejames</t>
+  </si>
+  <si>
+    <t>Ben Cashen</t>
+  </si>
+  <si>
+    <t>Absolutely stunning Nurgle goodness! The weathering is *chef's kiss*. What wash did you use for that grime? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your awesome tabletop painting setup – seriously impressive work! I'm a big fan of this kind of detail and dedication. I actually help some YouTube creators with their editing and visuals. I recently helped someone in the tech space grow their channel significantly, and I'm always looking for new channels doing cool things. Would love to chat quickly about your content—maybe I can offer a couple of pointers!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/theintroze</t>
+  </si>
+  <si>
+    <t>Ben Gates</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gigalisk</t>
+  </si>
+  <si>
+    <t>Ben Gumer</t>
+  </si>
+  <si>
+    <t>That split second before the explosion of action is so captivating! Really captures the intensity. What's your favorite part of shooting these moments? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic - infer from channel content] – really enjoyed your take on it! I've been helping YouTube creators level up their editing and visuals recently, even helped someone boost their channel from 2K to 10K subscribers. I’m Visuals, and I work with AI and developer creators to optimize their content. I'm curious, would you be open to a quick 15-minute chat about some growth strategies for tech channels?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ericksenpete</t>
+  </si>
+  <si>
+    <t>Ben Harworth</t>
+  </si>
+  <si>
+    <t>Such a joyful scene! The way the light catches everything is magical. Wonder what adventures those little ones are imagining? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video – the visuals were really great, especially the beach scene. I'm a video editor who helps other creators, and I've been helping some tech channels boost their growth recently. I'm always looking for cool projects and thought I might be able to offer some quick editing tips or growth ideas. Just wanted to reach out!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/naylor_98</t>
+  </si>
+  <si>
+    <t>Ben Hosei</t>
+  </si>
+  <si>
+    <t>Such a sweet moment captured! Love the way you frame connection—it’s really powerful. Wondering about your editing workflow for these kinds of candid shots? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your channel - really digging the content style! I'm a big fan of how you approach [mention something specific from the image/channel - e.g., the energy, the visuals, the topic].I actually do some editing and motion graphics for a few YouTube creators in the tech space, and helped one recently jump from 2k to 10k subs - all through some simple visual tweaks. I'd love to chat briefly about some ideas that could help your channel grow. Totally casual, just throwing it out there!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/piroskablanchette</t>
+  </si>
+  <si>
+    <t>Ben Marchant</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ken_pd_warrior</t>
+  </si>
+  <si>
+    <t>Benjamin James</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tomdickson407</t>
+  </si>
+  <si>
+    <t>Benjamin Novy</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vitalyvillian</t>
+  </si>
+  <si>
+    <t>Benjamin Piper</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/randy.kessel</t>
+  </si>
+  <si>
+    <t>Benjamin Tedder</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jacedehner</t>
+  </si>
+  <si>
+    <t>Benji Alvarez</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/castanuelajoe</t>
+  </si>
+  <si>
+    <t>Bennoye Foster</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/danieldean636</t>
+  </si>
+  <si>
+    <t>Bernardo Fernandez Garcia</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sjwolff</t>
+  </si>
+  <si>
+    <t>Berrin Yilmaz</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/daniel.glass.798</t>
+  </si>
+  <si>
+    <t>BetanCourt Xiara</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rbement1966</t>
+  </si>
+  <si>
+    <t>Betrum</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/icbhod</t>
+  </si>
+  <si>
+    <t>Bev Henry</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/freed0m_2024</t>
+  </si>
+  <si>
+    <t>Beverly filoni</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/zeeredbarron</t>
+  </si>
+  <si>
+    <t>Bian Tang</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/legathalagertha</t>
+  </si>
+  <si>
+    <t>Biebs ✌✨️</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/saltymechanic89</t>
+  </si>
+  <si>
+    <t>Big Shake Dog</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/storey.cm</t>
+  </si>
+  <si>
+    <t>Big Tone</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/poundtownlife</t>
+  </si>
+  <si>
+    <t>bige dark</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/michaelbailey1999</t>
+  </si>
+  <si>
+    <t>biggreat_empire</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/virgilb.sebastian</t>
+  </si>
+  <si>
+    <t>Bill Miller</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jimmycorn76</t>
+  </si>
+  <si>
+    <t>Billiam StewartRodriguez</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/larrycollamore</t>
+  </si>
+  <si>
+    <t>billiontillionmillion</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dishman_gaming</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/topdealios</t>
+  </si>
+  <si>
+    <t>Billy Paige</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dschuh22</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/csyuma</t>
+  </si>
+  <si>
+    <t>Birdo</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/corpierharley</t>
+  </si>
+  <si>
+    <t>Bitter Rival</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vic_00683</t>
+  </si>
+  <si>
+    <t>Bjorn Joseph</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/devonhurst11</t>
+  </si>
+  <si>
+    <t>BlackSheep</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bmeterry</t>
+  </si>
+  <si>
+    <t>blake</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/queencyntg</t>
+  </si>
+  <si>
+    <t>Blake Dean</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ellisbaumer</t>
+  </si>
+  <si>
+    <t>BLKSODA</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/juniorhilton69</t>
+  </si>
+  <si>
+    <t>BLOCKCHAIN BRIGADIER HUB</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ngm1572025</t>
+  </si>
+  <si>
+    <t>blondedbythelights</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mikerodev1999</t>
+  </si>
+  <si>
+    <t>BluBanks</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/danielanderson155</t>
+  </si>
+  <si>
+    <t>Blueé</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fcr1042</t>
+  </si>
+  <si>
+    <t>BluwMadeThisBeat (FBG)</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/john.787pr</t>
+  </si>
+  <si>
+    <t>Bob Slocum</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [YouTube Topic - assume from channel content] - really enjoyed your approach to [Specific aspect of video style/content]. I’m a big fan of creators experimenting with visuals, and I've recently helped another channel boost their growth significantly with some focused editing tweaks.I’m Visuals, and I mostly edit for AI and developer-focused channels. Would love to chat briefly about some growth strategies – maybe a quick 15-minute call sometime?</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your video on [Video Topic] - really enjoyed your style and how you explained things! I've been helping other creators level up their videos recently, even helped someone go from 2K to 10K subscribers. I’m Visuals, I edit for AI and developer channels, and I've got a few growth hacks that could be a good fit for your content. Would you be open to a quick 15-minute chat sometime?</t>
   </si>
 </sst>
 </file>
@@ -332,11 +444,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,11 +760,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE2015-94EE-4CD3-8429-8AD466D06123}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -668,21 +788,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -693,13 +825,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -710,30 +848,36 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -744,30 +888,42 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -778,64 +934,82 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -846,30 +1020,36 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -880,30 +1060,42 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -912,21 +1104,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -935,21 +1127,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -960,30 +1152,36 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -994,30 +1192,36 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1028,81 +1232,99 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1113,30 +1335,36 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1147,30 +1375,36 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1181,30 +1415,36 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1215,30 +1455,36 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1249,30 +1495,36 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1283,42 +1535,36 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1329,16 +1575,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1349,42 +1598,36 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1395,36 +1638,36 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1435,33 +1678,36 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1472,30 +1718,36 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1506,19 +1758,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1529,39 +1781,36 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1572,39 +1821,36 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -1615,30 +1861,36 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C54" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -1649,45 +1901,39 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -1695,24 +1941,647 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>48</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
         <v>0</v>
       </c>
     </row>

--- a/InstgramOutput.xlsx
+++ b/InstgramOutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F885D52-652A-4AF5-AAF5-ED9575680EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F8FC11-4980-4E51-9A4F-21E818E4EF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB2CBD43-8825-4C50-9713-C3E6C0B6D132}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="130">
   <si>
     <t>Profile url</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>Hey! Just stumbled across your video on [Video Topic] - really enjoyed your style and how you explained things! I've been helping other creators level up their videos recently, even helped someone go from 2K to 10K subscribers. I’m Visuals, I edit for AI and developer channels, and I've got a few growth hacks that could be a good fit for your content. Would you be open to a quick 15-minute chat sometime?</t>
+  </si>
+  <si>
+    <t>This is seriously impressive! The way you handle light &amp; shadow is masterful. Wondering what your go-to brushes are for texture? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Love the way you play with light and shadow! Really creates a mood. What's your favorite lens for these shots? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
   </si>
 </sst>
 </file>
@@ -760,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE2015-94EE-4CD3-8429-8AD466D06123}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,6 +2591,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InstgramOutput.xlsx
+++ b/InstgramOutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Instagram rpa bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0790B2-FBCC-4FA1-9965-23EC23CB02AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC4BA3C-ACD1-41AB-9954-9B73D4CCF8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB2CBD43-8825-4C50-9713-C3E6C0B6D132}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="375">
   <si>
     <t>Profile url</t>
   </si>
@@ -48,215 +48,1115 @@
     <t>Sent Comment?</t>
   </si>
   <si>
-    <t>https://www.instagram.com/saylessl_</t>
-  </si>
-  <si>
-    <t>Henry Larson</t>
-  </si>
-  <si>
-    <t>Hey! Just stumbled across your videos – really digging the vibe and the creative visuals. I'm a video editor who's been helping other creators boost their channels, especially those in the tech/AI space. I've got a few simple tweaks that can make a big impact on engagement, and I'd love to chat briefly about them if you're interested. No pressure at all, just thought I'd reach out!</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/dustin_busysignal</t>
-  </si>
-  <si>
-    <t>Heraclio Juarez</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your video on [Video Topic] - really cool setup and vibe, love the tech focus! I’m a video editor who helps creators in the tech space level up their visuals. I've been helping other channels boost engagement and grow their audience, and I'm always looking to connect with other passionate creators. I'm Visuals, by the way - would love to chat briefly about your workflow sometime!</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/m4tthew.bunting</t>
-  </si>
-  <si>
-    <t>Heribert</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your video on [mention specific video topic if possible, otherwise say "your channel"] – really digging the style and how you break down [mention something specific you liked, e.g., complex topics/the visuals/your humor]. I'm a video editor who often helps out creators in the tech/AI space. I recently helped someone grow from 2K to 10K subscribers with a few tweaks to their editing and optimization. Just wondering if you’re ever looking for a fresh pair of eyes on your videos? No pressure at all!</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/iam_billy30</t>
-  </si>
-  <si>
-    <t>Hernandez A. José</t>
+    <t>https://www.instagram.com/donnishgodreigns</t>
+  </si>
+  <si>
+    <t>jujunrice</t>
   </si>
   <si>
     <t>Skip</t>
   </si>
   <si>
-    <t>Hero Travel Adventure</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your video about [mention something specific from the video] - really cool concept and your energy is great! I'm a video editor and been helping other creators boost their YouTube presence, recently helped someone jump from 2K to 10K subs.I’m Visuals, and I specialize in editing for tech/AI creators. Got a simple trick that could give your channel a noticeable growth boost. Happy to hop on a quick 15-min call if you’re interested!</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/cworldjoey</t>
-  </si>
-  <si>
-    <t>HeVersusPro-_-11</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/oldrich.hanak.3</t>
-  </si>
-  <si>
-    <t>hex ️</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/s.b.koroma</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/fllthyracks</t>
-  </si>
-  <si>
-    <t>Hicham Taouih</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/mexsy___</t>
-  </si>
-  <si>
-    <t>Hickman A Brian</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/sadinafa</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/chikizs24</t>
-  </si>
-  <si>
-    <t>Hildon Treadway</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/gilz_87</t>
-  </si>
-  <si>
-    <t>Hillary Chambers</t>
-  </si>
-  <si>
-    <t>Hey! Just wanted to say I really enjoyed your video on [mention specific topic from the image/channel]. Your explanation of [specific element] was super clear and helpful. I'm a big fan of tech/AI content myself and I actually do some editing work for other creators in the space. I've helped a few channels boost their engagement, and thought I could maybe offer a few quick tips—nothing too formal, just a friendly helping hand.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jordan_201_</t>
-  </si>
-  <si>
-    <t>Hillbilly Chub</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/priscilaodor</t>
-  </si>
-  <si>
-    <t>Hills Greezy</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your latest video - really digging your style and energy! I’m a big fan of content like yours. I actually help other creators with their editing and visuals. Helped a buddy boost his channel from 2k to 10k subs recently, mostly focusing on tightening up the flow and optimizing for the algorithm. If you're ever looking for a fresh pair of eyes or some editing help, let me know!</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/the.boi.micah</t>
-  </si>
-  <si>
-    <t>Hilowley</t>
-  </si>
-  <si>
-    <t>Hey! Just wanted to say I really enjoyed your video on [Topic from video - *you'll need to fill this in*] - the way you explained [Specific element you liked] was awesome. I'm an editor who works with a lot of AI/dev-focused creators, and I've been helping channels see some serious growth lately. I've got a few ideas I think could really help your channel pop, especially given the tech focus. Would you be open to a quick 15-minute chat sometime?</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kaelyndoll</t>
-  </si>
-  <si>
-    <t>HipHoppopotamus</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/cinematic_cloud</t>
-  </si>
-  <si>
-    <t>Hit Em Up Gunplay</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your video on the landscape - absolutely stunning visuals, really immersive. I'm a big fan of the overall vibe you're going for and I actually do some editing for other creators in the tech/AI space.I recently helped someone boost their channel's growth significantly, and I have a few ideas that might be a good fit for yours. Would you be open to a quick 15-minute chat to brainstorm?</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kevi.n17878</t>
-  </si>
-  <si>
-    <t>HitBoxSports</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/geegorogo</t>
-  </si>
-  <si>
-    <t>Hman's Cool Collectibles</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your video – really digging the vibe and the setup, especially the natural lighting. Huge fan of the content you're creating!I've been helping other YouTube creators with editing and growth strategies, and noticed some quick wins I think could help your channel too. I'm Visuals, and I edit for AI/dev channels – happy to chat briefly if you're interested.</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/princegyamera12</t>
-  </si>
-  <si>
-    <t>Hoang</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/muka_rechetti</t>
-  </si>
-  <si>
-    <t>Hob</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your latest video - that camera work and the vibe you're going for is really cool. I’ve been editing YouTube videos for a while now, and recently helped a friend boost their channel from 2K to 10K subscribers. I'm Visuals, and I edit for AI and developer creators. I'm always looking for ways to help other creators level up their content. Let me know if you're ever looking for a fresh set of eyes or a helping hand with editing—always happy to share ideas!</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your video on [mention specific topic from video] – really enjoyed the vibe and the visuals. I'm an editor who helps tech and AI creators level up their videos, actually helped a channel jump from 2k to 10k subs recently. Thought you might appreciate a fresh set of eyes on your editing. Got a few simple tricks that can often make a big difference in viewer retention. Would love to chat for 15 mins if you’re open to it!</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/tyden.tichy</t>
-  </si>
-  <si>
-    <t>Henry Wu</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your latest video – really digging the vibe and the storytelling. I'm a big fan of your style. I've been helping other creators level up their edits and grow their channels recently (helped someone boost their subs from 2k to 10k!), and I thought maybe I could offer a fresh perspective. I’m Visuals, and I specialize in editing for tech and AI creators. Let me know if you'd be open to a quick chat sometime!</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your video on [Video Topic - infer from image/channel]. Really appreciated your approach to [Specific Style/Element - infer from image/channel] - it was super engaging. I've been helping other creators boost their channels, even helped one go from 2K to 10K subs recently.I'm Visuals, and I do editing for AI and developer-focused channels. I've got a pretty solid growth trick I think could work well for yours. Wanna hop on a quick 15-minute call sometime?</t>
-  </si>
-  <si>
-    <t>Hey! Just wanted to say I really dig your setup and the vibe of your videos - super clean and focused. I'm a big fan of creators who are into the tech/AI space, and you're doing a great job with it. I've been helping other YouTubers with their editing and content strategy, and recently helped a channel jump from 2K to 10K subscribers. I’m Visuals, and I specialize in editing for AI and developer creators. If you're ever looking for a fresh perspective or some editing assistance, feel free to reach out!</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your video about the tractor—super cool setup and really well shot! I'm a bit of a gearhead myself and really appreciated the detail you went into. I actually do some editing for other YouTube channels, mostly in the tech space, and have helped some folks see some pretty solid growth. Just thought I'd reach out—happy to chat if you ever need a hand with anything!</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/its.maximo.4real</t>
-  </si>
-  <si>
-    <t>Hersey L Roberts III</t>
-  </si>
-  <si>
-    <t>Hey! Just wanted to say I'm a big fan of your videos - really appreciate the style and energy you bring. I've been helping other creators level up their editing and seen some awesome growth, especially for tech-focused channels. Would love to chat briefly about how I might be able to help your videos reach even more viewers. Just a quick 15-minute call to see if we're a good fit?</t>
-  </si>
-  <si>
-    <t>Hey! Just saw your latest video - super creative stuff! Really digging the vibe you're bringing. I've been helping some other creators level up their editing and channel growth recently, and thought I could offer some quick tips. I'm Visuals, and I work with AI and developer channels – happy to chat if you’re looking for a fresh perspective.</t>
-  </si>
-  <si>
-    <t>Hey! Just stumbled across your videos - really dig the production style and the tech focus. I’m a bit of a YouTube enthusiast myself and also do some editing for creators in the AI/dev space. I've been helping some channels experience some serious growth lately, especially with a few simple tweaks to their visuals. Would love to chat briefly about some ideas that might help your channel too - maybe a quick 15-minute call?</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/dr3_versac3</t>
-  </si>
-  <si>
-    <t>hesmiiamyu</t>
-  </si>
-  <si>
-    <t>Hey! Really enjoyed your recent video - your energy and the concept were awesome. I've been dabbling in YouTube editing and helping other creators level up their visuals, actually helped someone jump from 2k to 10k subs recently. I'm Visuals, and I mainly edit for AI and developer-focused channels. I've got a few quick tips that could potentially boost your reach, would love to chat for 15 mins and share one.</t>
+    <t>https://www.instagram.com/aeselali</t>
+  </si>
+  <si>
+    <t>Jukebox0927</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/idreamoflyric</t>
+  </si>
+  <si>
+    <t>Jules</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_tihanna</t>
+  </si>
+  <si>
+    <t>Jules Marie &amp; Marty ♥️</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lynindigobrownofficial</t>
+  </si>
+  <si>
+    <t>Julia Harris</t>
+  </si>
+  <si>
+    <t>This aesthetic is captivating! The way you play with light and shadow creates such depth. Really inspiring work – what was your main source of inspiration for this piece? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your channel and really dig your style – the visuals are 🔥! I've been helping some creators boost their YouTube game recently, helping one channel jump from 2K to 10K subscribers, focusing on editing and growth strategies.I’m Visuals, an editor who works with AI and development channels, and I’ve got a few ideas that could really help your content pop. Would you be open to a quick 15-minute chat to see if I can offer some actionable tips?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/iamyoungkhev</t>
+  </si>
+  <si>
+    <t>Julia Munsey</t>
+  </si>
+  <si>
+    <t>These balloon arrangements are pure magic! The flow and color story are so captivating. What’s your fave part of designing them? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [mention video topic] - really vibed with your energy and how you explained things. I've been helping some YouTube creators level up their editing and growth recently, helped one go from 2K to 10K subscribers.I'm Visuals, I edit for AI and tech creators. I've got a few simple growth tricks that work especially well for tech channels. Would you be open to a quick 15-minute chat sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/johnnyverse__</t>
+  </si>
+  <si>
+    <t>Julia R Grew</t>
+  </si>
+  <si>
+    <t>Love the texture and mood here! Really conveys a sense of quiet strength. What inspired this particular lighting choice? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your recent video on [Video Topic - assume based on the image vibe, e.g., tech/lifestyle/travel]. Really dig the visuals and how you put it all together – super clean! I’m a video editor and have been helping some creators boost their channels recently.I helped one channel jump from 2K to 10K subs just by tweaking a few key things. I’m Visuals, and I mostly work with tech and AI creators. Maybe a quick 15-minute call to chat about a few growth ideas?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chaaremilyy</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>That light is incredible! ✨ Really love how you capture these moments – makes me want to wander through a vintage shop. What's your secret to finding the best light? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic] - really loved your energy and how clearly you explained [Specific Aspect]. I actually helped someone grow their channel from 2k to 10k subs recently with some targeted editing tweaks.I'm Visuals, I edit for AI and tech creators, and I'm always looking for channels with potential. Got a quick growth trick specifically for tech channels – happy to share if you’re open to it!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/eyewurksart</t>
+  </si>
+  <si>
+    <t>Julian Delgado</t>
+  </si>
+  <si>
+    <t>That light play is stunning! Really evokes a mood. Wondering about your process for achieving such depth? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [YouTube Topic] - really enjoyed your take on [Specific Style/Element]! I've been helping some creators boost their growth recently, even helped one channel jump from 2K to 10K subscribers. I’m Visuals, and I edit videos for AI and developer-focused channels. I’ve got a couple of quick tips that could really help your channel stand out. Would you be open to a quick 15-minute chat to bounce some ideas around?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/janvierakijuru</t>
+  </si>
+  <si>
+    <t>Julian johnson</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mug_stivox</t>
+  </si>
+  <si>
+    <t>Julian Mossboss</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kurtkid001</t>
+  </si>
+  <si>
+    <t>Julian Nieves</t>
+  </si>
+  <si>
+    <t>That confidence radiating through the shot is incredible! Love the framing and the subtle color story. Always remember to play with depth of field to draw focus. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Okay, here's a DM message you can copy and paste, designed to feel casual and genuine, based on the image and your prompt:**DM Message:**Hey! Just saw your videos - love the energy and the vibe you're putting out! That movement sequence was seriously cool, reminds me of some edits I’m working on. I actually help other creators level up their visuals – recently helped a channel boost their subscriber count. I’m Visuals, and specialize in editing for creators in the tech/AI space. Would love to quickly chat about some simple growth strategies if you’re up for it.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kaia.rodney</t>
+  </si>
+  <si>
+    <t>Juliane Silva</t>
+  </si>
+  <si>
+    <t>The vibrant energy here is incredible! Really love how you capture movement and joy. What's your favorite part of this shoot? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic - Guess based on the image/channel] – really dig your energy and the visuals! I'm a big fan of the vibe you're going for.I'm a video editor who helps creators like you level up their content. I've helped a few channels see some serious growth recently, and I'm always looking for ways to help talented people shine. Would love to chat briefly about some ideas if you’re open to it!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/r.sil07</t>
+  </si>
+  <si>
+    <t>julianpronto</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kystmusic</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Love the way you capture quiet confidence! Such a powerful portrait. What inspired this particular shoot? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey, huge fan of your videos! Really digging the energy and creativity – the visuals are 🔥. I'm an editor who's been helping other YouTube creators level up their content, especially those in the tech/AI space. Just helped a channel jump from 2K to 10K subscribers recently with some tweaks to their editing and overall presentation. I'm Visuals, and I'm curious if you’re ever looking for a fresh pair of eyes on your videos?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/eddy_brandon_</t>
+  </si>
+  <si>
+    <t>Julie Barnard</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/johnkarmel</t>
+  </si>
+  <si>
+    <t>Julie Samba</t>
+  </si>
+  <si>
+    <t>Incredible shot! The light really emphasizes those feathers. Wondering about your approach to blending in with the terrain? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video about turkey hunting – seriously awesome footage and your commentary was spot on! I've been into outdoor content creation myself and love seeing people really passionate about what they do.I actually help other creators with their editing and visuals – recently helped someone boost their channel growth significantly. I'm a bit of a visuals nerd and edit mainly for tech and AI creators. Just thought I'd reach out, might be able to offer some quick tips if you're ever looking for a fresh pair of eyes!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rubendarioo_14</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kiid_desire_rsa</t>
+  </si>
+  <si>
+    <t>Julio  castillo</t>
+  </si>
+  <si>
+    <t>This is super inspiring - love the layered textures and the way you play with light! Really striking work. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video about [mention video topic based on the image - e.g., tech reviews, gaming, lifestyle]. Really enjoyed your energy and how clearly you explained everything! I'm a big fan of your content.I'm Visuals, an editor who works with a lot of AI and developer-focused channels – helped one creator jump from 2K to 10K subscribers recently. I have a few growth strategies that might be useful. Would you be open to a quick 15-minute chat sometime to see if I could offer some insights?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thebrandengine</t>
+  </si>
+  <si>
+    <t>Julio Almazan</t>
+  </si>
+  <si>
+    <t>Really digging the way you weave emotion into your visuals! Such a unique voice. What inspires your color palettes? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just watched your video on [mention specific video topic] – really cool style and energy! I'm a bit of a YouTube enthusiast myself and love seeing creators explore different vibes. I actually help other creators with their editing and visuals, especially those in the tech space. I helped someone boost their subscriber count from 2k to 10k recently using some simple tricks. Just thought I'd reach out – would you be open to a quick 15-minute chat sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/supremebullies.australia</t>
+  </si>
+  <si>
+    <t>Julio Cesar</t>
+  </si>
+  <si>
+    <t>Such a tender moment captured! The light hitting the fur is gorgeous. Do you ever shoot in RAW to maximize detail? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic] – really dig your style and the energy you bring! I’m a big fan of [Channel Name] and love seeing creators building cool stuff.I actually edit videos for a few other creators in the AI/dev space, and recently helped someone jump from 2K to 10K subscribers. Been thinking about ways to boost your channel's growth - think a quick 15-minute chat would be worthwhile?</t>
+  </si>
+  <si>
+    <t>Julio Trinidad</t>
+  </si>
+  <si>
+    <t>This light is incredible - capturing so much warmth and connection. What’s your go-to setup for achieving this kind of mood? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic - based on image/channel] - really dig your style and energy! I'm a big fan of your channel and how you bring [mention something specific you liked] to the table.I'm Visuals, an editor who works with AI and tech creators, and I’ve actually helped someone go from 2K to 10K subs recently. I've got a few growth tricks I've picked up, especially for tech channels. Just thought I'd reach out – maybe a quick 15-minute chat could be worthwhile?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/daarmethazine</t>
+  </si>
+  <si>
+    <t>Julius</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ash_reonna</t>
+  </si>
+  <si>
+    <t>Jumps</t>
+  </si>
+  <si>
+    <t>Absolutely stunning portrait! The light and shadow play so beautifully. What kind of lens were you using? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Okay, here's a DM message you can copy and paste, based on the image and your request:Hey! Just saw your video on [mention video topic - based on what you saw] – seriously loved your energy and how you broke that down. I’ve been helping some other creators level up their visuals and even helped someone boost their channel from 2K to 10K subs recently. I’m Visuals, I edit for AI/dev creators and I've got a growth trick that might work really well for tech channels. Would you be open to a quick 15-min call to chat?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/viatheblackfairy</t>
+  </si>
+  <si>
+    <t>Jumrah Keful</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/edys_____________belvie</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/t_c_tuna</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bwoii_shawn</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/whaattheeheeck</t>
+  </si>
+  <si>
+    <t>Junior Hilton</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lilkevzi</t>
+  </si>
+  <si>
+    <t>Junior Laroche</t>
+  </si>
+  <si>
+    <t>Stunning simplicity! The way you play with volume and shadow is captivating. It's all about finding the balance, isn't it? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your videos – really digging the energy and the content you’re putting out. I'm a big fan of creators who are pushing boundaries, and you definitely seem to be doing that.I'm a video editor who’s helped a few YouTube channels level up their visuals and subscriber count recently. I've got a few ideas on how we could potentially collaborate and boost your reach even further – happy to chat briefly if you’re open to it!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sasah_orezzy</t>
+  </si>
+  <si>
+    <t>Junior Rodriguez</t>
+  </si>
+  <si>
+    <t>Love the energy in this! It's so inspiring to see such raw creativity. What's been your biggest artistic breakthrough lately? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [mention video topic based on image/channel] - really vibed with your energy and the overall vibe. I've been helping some creators level up their YouTube presence recently, actually helped one channel jump from 2k to 10k subs!I’m Visuals, and I edit videos for tech and AI creators, so I understand what it takes to grow a channel in that space. I’m curious if you ever think about optimizing your video edits for better engagement – maybe a quick 15-minute chat to brainstorm?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/readyp01</t>
+  </si>
+  <si>
+    <t>juniorfirep</t>
+  </si>
+  <si>
+    <t>Wow, the light in this shot is incredible! Really captures the mood. Experimenting with longer exposures can create even more dreamy effects. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your latest video - really dig the creative visuals and overall vibe, especially the unique filming style. As a fellow tech/creative content fan, I always appreciate seeing new approaches.I actually help some creators level up their editing and presentation – recently helped someone grow their channel from 2K to 10K subs with some simple adjustments. Would love to share a quick tip or two if you’re open to it!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/emotional4breezy</t>
+  </si>
+  <si>
+    <t>juniorrr.</t>
+  </si>
+  <si>
+    <t>Love the energy in this shot! Such a unique perspective. Wondering about the lighting setup – any chance you could share a quick tip? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic - look at the image to guess] - really vibed with your energy and the way you explained things. I've been helping creators level up their editing and storytelling for a while now, even helped someone jump from 2K to 10K subscribers recently. I'm Visuals, and I specialize in editing for AI and tech creators. Got a few growth ideas that could be a good fit for your channel, would love to chat for 15 mins and share them if you're interested!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wesley.black_</t>
+  </si>
+  <si>
+    <t>JUNNO</t>
+  </si>
+  <si>
+    <t>Love the energy in this! The flow is so smooth - really captures movement. A great reminder to find your rhythm. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your recent video – really enjoyed the energy and the [mention a specific detail you liked, e.g., filming style, editing choice, music selection]. I've been helping other creators boost their visuals and grow their channels, and thought maybe I could offer some tips!I've got a background in video editing and helping tech channels grow – happy to share a quick growth hack or two if you’re interested. No pressure at all, just thought it could be helpful!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lheacho_one</t>
+  </si>
+  <si>
+    <t>Juno 5</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/atlanta_avenue_mommatee_</t>
+  </si>
+  <si>
+    <t>Juno Shi</t>
+  </si>
+  <si>
+    <t>Wow, the use of light in this series is stunning! It creates such a captivating mood. Really feeling the textures too. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just wanted to say I'm a big fan of your videos – really dig the style and energy. I've been helping other creators level up their editing and grow their channels, even helped someone jump from 2K to 10K subscribers recently.I’m Visuals, and I specialize in editing for AI/dev creators – got a few growth tricks that could be a good fit for your channel. Would love to chat briefly about how I can help if you’re open to it!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/estidubu</t>
+  </si>
+  <si>
+    <t>Juny | AgentJuny | DjJuny</t>
+  </si>
+  <si>
+    <t>This light is *chef's kiss*! Really captures a feeling of hopeful anticipation. What's your favorite lens for achieving this kind of glow? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just wanted to say I'm a big fan of your videos - really dig the style and how you present things. I'm a video editor and recently helped a creator boost their subscriber count from 2K to 10K, mainly through improving visuals. I specialize in helping AI and dev-focused channels, and I’ve got a few ideas that might be a good fit for yours. Would you be open to a quick 15-minute chat to brainstorm?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/702arbitrage</t>
+  </si>
+  <si>
+    <t>Jürgen B</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_camden.southgate_</t>
+  </si>
+  <si>
+    <t>Jusa Dementor</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/neike.jj</t>
+  </si>
+  <si>
+    <t>just...me&lt;3</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/allhailqueen_e</t>
+  </si>
+  <si>
+    <t>Justas</t>
+  </si>
+  <si>
+    <t>Love the energy in this shot! Composition is really strong - that negative space does wonders. Tip: try experimenting with wider apertures for a softer look sometimes! Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [mention topic based on image if discernible, otherwise say "your channel"] – really cool vibe and unique style! I've been helping some creators level up their videos lately, actually helped a channel jump from 2k to 10k subs recently with a few tweaks. I’m Visuals, and I edit primarily for AI and developer-focused channels. I've got a few growth tricks I've picked up, and thought a quick 15-minute chat might be worthwhile to see if I can offer some help.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/robertocarloshernandez673</t>
+  </si>
+  <si>
+    <t>Justen Lee Belew</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lismith_tech</t>
+  </si>
+  <si>
+    <t>Justeyn Baldera-Sanchez</t>
+  </si>
+  <si>
+    <t>Such a striking composition! The way the light hits those clouds is captivating. Really love the sense of scale here. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Topic of video] - really enjoyed your style and how you explained [Specific detail you liked]. I'm a big fan of creators in the tech/dev space, and I actually helped a channel recently go from 2k to 10k subscribers with some editing tweaks and strategy. I’m Visuals, and I edit primarily for AI/dev content creators. If you’re ever looking for a fresh pair of eyes on your videos, I’d love to chat – maybe a quick 15-minute call to brainstorm?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/beasyoe33</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Love the texture you're capturing! It feels so real. Wondering about your lighting setup for that depth? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just watched your video on [Video Topic] - really enjoyed the breakdown and your delivery! I'm a big fan of the channel. I'm Visuals, an editor who's helped some tech creators boost their growth. I recently helped a channel jump from 2k to 10k subs, so I might have a few ideas to help you level up your content too. Happy to chat briefly if you’re open to it!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/y2knaaeee</t>
+  </si>
+  <si>
+    <t>Justin Abernathy</t>
+  </si>
+  <si>
+    <t>Such a striking vibe! Love how you play with light &amp; shadow - it really draws you in. Experimenting with a slightly lower ISO can sometimes boost clarity. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Saw your recent video on [Video Topic] - really vibed with your style and the energy! I'm a big fan of the content you're putting out. I'm a video editor who specializes in helping AI and developer creators level up their visuals. I've actually helped someone boost their channel from 2K to 10K subscribers recently, and I have a few growth tricks I think could really benefit your channel too. Would you be open to a quick 15-minute call to chat about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/frankotradess</t>
+  </si>
+  <si>
+    <t>Justin Barnes</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/a_witcher_in_the_ry</t>
+  </si>
+  <si>
+    <t>Justin Brewer</t>
+  </si>
+  <si>
+    <t>That lighting is stunning - really elevates the mood. It's all about embracing those shadows, right? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your video on [Video Topic - guess from the image/channel]. Really enjoyed your style and energy - you've got a great vibe. I've been helping some YouTube creators with their editing and visuals, recently boosted someone's channel from 2k to 10k subs, and thought maybe I could offer a few quick tips if you're ever looking. I'm Visuals, edit for AI/dev creators. Let me know if you're open to a quick chat sometime!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/prodbyandresss</t>
+  </si>
+  <si>
+    <t>Justin Brown</t>
+  </si>
+  <si>
+    <t>Amazing depth and texture here! The lighting really pulls you in. Wondering about your post-processing workflow? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your channel - really digging the vibe and the production quality. Seeing a lot of potential here!I've been editing YouTube videos for a while now and helped a creator jump from 2,000 to 10,000 subscribers recently, so I'm pretty familiar with what works. I'm Visuals, and I mainly work with creators in the tech/AI space. Would love to chat briefly about some growth strategies—maybe 15 minutes?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/miss_londondior</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/damozahlee</t>
+  </si>
+  <si>
+    <t>Justin Cabrera</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/israelite0071</t>
+  </si>
+  <si>
+    <t>Justin Casares</t>
+  </si>
+  <si>
+    <t>That energy is infectious! Love seeing the connection with the crowd. What's been the most memorable moment on this tour so far? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just watched your latest video - really digging the production quality and your energy. I'm a big fan of content like yours and actually help other creators level up their editing and overall channel strategy.I've been working with AI and developer-focused channels recently, helping them boost engagement and subscriber growth. Happy to chat briefly if you’re open to some quick ideas – no pressure at all!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yvonne_akosuah_fimah</t>
+  </si>
+  <si>
+    <t>Justin Clair Hotchkiss</t>
+  </si>
+  <si>
+    <t>Stunning work! The way you capture light is incredible. ✨ What inspires your color palettes? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic - fill in based on the image/channel] – really enjoyed your take on [Specific aspect you liked]! I’m a big fan of your style and I've actually helped a creator go from 2K to 10K subscribers recently with some visual tweaks.I'm Visuals, and I edit primarily for AI and developer creators - I've got a few tricks that could seriously boost your channel's growth, especially for tech-focused content. Would you be open to a quick 15-minute call to chat?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_randy_vita_</t>
+  </si>
+  <si>
+    <t>Justin Collins</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/piscestrini26</t>
+  </si>
+  <si>
+    <t>Justin Delello</t>
+  </si>
+  <si>
+    <t>This is such a cool vibe! The textures really pop. Have you ever experimented with layering different light sources? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic] - seriously loving the energy and your style! I've been helping some creators boost their channels lately (helped someone jump from 2K to 10K subs recently), and I've got a few ideas that could really help you level up your content.I'm Visuals, and I specialize in editing for creators in the tech/AI space. Just thought I’d reach out—maybe we could chat for 15 minutes to see if I can offer some actionable tips?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/techgear.advertising</t>
+  </si>
+  <si>
+    <t>Justin Do</t>
+  </si>
+  <si>
+    <t>** Such a vibe! Really love how you capture those fleeting moments of joy and connection. Makes me think of late nights with friends. ✨ Just sent you something in DMs you might find interesting – check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just wanted to say I'm a big fan of your videos – love the vibe and the info you're putting out. Really dig the production style too! I've been helping other tech creators level up their edits and grow their channels.  I’m Visuals and I’m pretty good at making complex topics easy to digest.  Would love to chat briefly about some ideas – maybe 15 minutes?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aviaaa._</t>
+  </si>
+  <si>
+    <t>Justin Frye</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mr._michael_b</t>
+  </si>
+  <si>
+    <t>Justin Grooms</t>
+  </si>
+  <si>
+    <t>Love the way you capture light! It creates such a dreamy atmosphere. Wondering what your favorite lens is for this style? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [YouTube Topic] - really enjoyed your style and the way you explained [Specific Detail]. I’ve been helping other creators boost their channels lately, and even helped someone jump from 2K to 10K subscribers recently. I'm Visuals, and I edit videos for AI/dev creators. I'm pretty confident I've got a growth trick or two that could really help your channel out. Would you be up for a quick 15-minute call to chat?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/almosteclectic</t>
+  </si>
+  <si>
+    <t>Justin Ikechukwu Simeon</t>
+  </si>
+  <si>
+    <t>Wow, the energy of Times Square really pops in this shot! The reflections are stunning. Tip: try shooting at different focal lengths for varied perspectives. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Okay, here's a DM you can copy and paste:Hey! Just saw your video on [Video Topic] - really dig your style and how you explain things. Been helping some creators level up their editing and channel growth recently. I'm Visuals, and I specialize in editing for AI/dev creators. Got a few quick ideas that might help boost your views and subscriber count. Wanna chat for 15 mins sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ampa.08</t>
+  </si>
+  <si>
+    <t>Justin James Heard</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/papicart3r</t>
+  </si>
+  <si>
+    <t>Justin JT Tash</t>
+  </si>
+  <si>
+    <t>Love the textures and that subtle play of light! Really captivating. Wondering what inspired the color palette? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic - guess from image/channel] - really enjoyed your style and the way you explained things. I'm a video editor who's helped a few channels boost their growth recently, especially those in the tech/AI space.I've got a few ideas that might help your channel reach an even wider audience - nothing crazy, just a few tweaks that can make a big difference. Would you be open to a quick 15-minute chat sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lexiz_official</t>
+  </si>
+  <si>
+    <t>Justin King</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rebirthwithbev</t>
+  </si>
+  <si>
+    <t>Justin Lynn Bailey</t>
+  </si>
+  <si>
+    <t>Love the vibe! So important to learn about finances in a fun way. What's your favorite workshop topic this year? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic] - really enjoyed your energy and how you broke down the content. I'm a big fan of creators in the [Niche] space, and I'm also a video editor. I've actually helped a few channels in a similar niche boost their views and engagement recently. I'm Visuals, I edit mainly for AI/dev creators, and I'm happy to share a quick tip or two if you're interested – no pressure at all!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/steven_godric</t>
+  </si>
+  <si>
+    <t>Justin Manuel Medina</t>
+  </si>
+  <si>
+    <t>Love the vibe! Really digging the color grading - what presets are you using? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [mention video topic] - really digging your style and the way you break things down. I’m Visuals, and I actually help other creators in the tech space with their editing and visual storytelling. I've helped a few channels level up their growth recently, and I think I could bring some fresh ideas to yours too. Would you be open to a quick 15-minute chat sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/renzor.torres</t>
+  </si>
+  <si>
+    <t>Justin Marsh</t>
+  </si>
+  <si>
+    <t>Incredible perspective! Love how you capture the scale of things. Wondering what lens you used for this shot? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your recent video about [mention topic from video - assuming it's tech/travel based on the photo] - really enjoyed your perspective and the visuals were great. Been editing for YouTube creators in the tech space for a while now, and I'm always happy to share a few tips if you're ever looking for a fresh pair of eyes.I actually helped a channel in a similar niche grow from 2k to 10k subscribers recently – mostly through some subtle editing tweaks and better thumbnail optimization. If you're ever interested in chatting about that, I'm Visuals, and happy to hop on a quick 15-minute call sometime!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dirty_dan0530</t>
+  </si>
+  <si>
+    <t>Justin McCorkle</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/j_c_empire</t>
+  </si>
+  <si>
+    <t>Justin Miller</t>
+  </si>
+  <si>
+    <t>Really capturing the focus and intensity of the team! Love the framing and how the light hits. What's your favorite lens for these kinds of moments? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just wanted to say I really enjoyed your video on [Video Topic - guess based on image if possible] – your energy is awesome! I've been helping other YouTubers with their editing and visuals, and helped someone go from 2K to 10K subscribers recently.I'm Visuals, and I edit primarily for AI and dev creators. I've got a few quick-win growth tricks that often work really well for tech channels - would you be up for a quick 15-minute call to chat about them?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/omoiyaore_</t>
+  </si>
+  <si>
+    <t>Justin Myers</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tonyutuk</t>
+  </si>
+  <si>
+    <t>Justin Parent</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/773marlo</t>
+  </si>
+  <si>
+    <t>Justin Scheinblum</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/robmelo30</t>
+  </si>
+  <si>
+    <t>Justin Self</t>
+  </si>
+  <si>
+    <t>Really digging the thoughtful composition here! The way you're playing with light is captivating. Quick tip - try experimenting with slower shutter speeds for some dreamy effects. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just wanted to say I really enjoyed your video on [mention specific topic from image/channel]. Your explanation of [specific detail] was super clear and helpful. I've been helping other creators boost their YouTube presence – recently helped someone go from 2K to 10K subscribers – and I specialize in editing for AI and dev-focused channels. Happy to chat briefly if you're open to some quick growth ideas!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pedrolenguepro</t>
+  </si>
+  <si>
+    <t>Justin Shoup</t>
+  </si>
+  <si>
+    <t>Love the way you capture light! Such a warm, inviting feel to your work. Tip: Try shooting during the golden hour more often! Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just watched your video on [Video Topic - guess from image if possible, otherwise say "your channel"] - really loved your energy and how clearly you explained [Specific element you liked - e.g., the concept, your presentation style, etc.]. I'm a big fan of creators in the [Niche - guess from image] space. I've been helping other YouTubers level up their editing and content strategy lately – even helped someone jump from 2k to 10k subs recently! I’m Visuals, and I specialize in helping AI and developer-focused creators get seen. Maybe we could chat for 15 minutes? I'll share a growth trick I've been using.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/denny_c7</t>
+  </si>
+  <si>
+    <t>Justin Stewart</t>
+  </si>
+  <si>
+    <t>Really powerful imagery! It's striking how you capture both the beauty and fragility of these landscapes. Wondering about your process for finding these locations? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your video on [mention topic based on the image - e.g., coding/tech/travel] – really enjoyed your explanation style and the production quality! I've been editing YouTube videos for a while now, and actually helped another creator boost their channel from 2K to 10K subscribers recently, mostly focusing on tech and AI content.I’m Visuals, and I specialize in editing for creators like you. I’ve got a few ideas on how we could elevate your channel even further. Would you be open to a quick 15-minute chat sometime next week?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/whois_dee</t>
+  </si>
+  <si>
+    <t>Justin Sylevester</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/elgeeofficial</t>
+  </si>
+  <si>
+    <t>Justin T. Reynolds Henry</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/delanoretroupejr</t>
+  </si>
+  <si>
+    <t>Justin Tesky</t>
+  </si>
+  <si>
+    <t>Love the energy &amp; insights! Really inspiring to see your approach. What sparked your interest in this field? Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [mention specific video topic from image if possible, otherwise something general like "your latest video"] - really enjoyed your energy and how you broke down [mention something specific you liked about the content]. I'm an editor who works with other creators, especially in the tech space, and I'm always looking for ways to help content pop!Recently helped a channel go from 2k to 10k subs by tweaking their editing flow, and I'd love to chat for 15 mins about how I could potentially help you grow yours – no pressure at all!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/boyisforeign</t>
+  </si>
+  <si>
+    <t>Justin Vieyra</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/briag_0</t>
+  </si>
+  <si>
+    <t>Justin Wymerwear Weimerskirk</t>
+  </si>
+  <si>
+    <t>The energy in this shot is incredible! Love the use of light and shadow. Really captures the vibe. Just sent you something in DMs you might find interesting - check it when you get a chance!</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your videos – really digging the vibe and energy you're bringing. I've been helping some YouTube creators level up their edits and growth recently, and I could see a few simple tweaks that could really amplify what you're already doing. I'm Visuals, an editor specializing in helping AI and tech creators build their audience. Just wanted to reach out - happy to hop on a quick chat if you're ever looking for a fresh perspective!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mario.ohb</t>
+  </si>
+  <si>
+    <t>Justine Mbungai</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_heismannu_</t>
+  </si>
+  <si>
+    <t>Koe</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/iam1hundo</t>
+  </si>
+  <si>
+    <t>Kofi Dave</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video - really digging the vibe and the visuals, especially that rooftop shot! I'm a bit of a YouTube enthusiast myself and I love seeing creators level up their content. I've been helping other channels with editing and growth strategies lately (helped one go from 2k to 10k subs!), and I think your channel has serious potential. I'm Visuals, an editor specializing in tech and AI content. Maybe we could chat for 15 minutes sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/goodbodae</t>
+  </si>
+  <si>
+    <t>Koichi Kidd</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/minxcouture</t>
+  </si>
+  <si>
+    <t>Kolina Topel</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your video on [Video Topic] – seriously loved your approach to [Specific aspect of video style/content]! I've been helping some creators level up their visuals and recently helped someone boost their subscriber count from 2K to 10K. I'm Visuals, I edit for AI/dev creators, and I’ve got a few growth tricks I think could really benefit your tech channel. Would you be open to a quick 15-minute chat sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/destiny_renee26</t>
+  </si>
+  <si>
+    <t>kollector</t>
+  </si>
+  <si>
+    <t>Hey, saw your video on the AI safety discussion – really appreciate your nuanced perspective! I've been helping some creators in the tech/AI space level up their visuals, helped one channel go from 2K to 10K subs recently. I’m Visuals, an editor who specializes in helping AI and dev creators. Got a growth trick that might be really useful for your channel, happy to share if you're interested.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kallybrecostabaroa</t>
+  </si>
+  <si>
+    <t>Kolton Byler</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic] – the visuals were really captivating! I've been helping some creators boost their YouTube presence lately, actually helped someone jump from 2K to 10K subs recently.I'm Visuals, and I edit mainly for AI and developer-focused channels. I've got a few tricks I think could really help your channel grow - would you be open to a quick 15-minute call to chat about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mo.noor.din</t>
+  </si>
+  <si>
+    <t>Komputri Dido</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your videos - really digging your style and the vibe you're creating. I'm a video editor who often helps out other creators, and I'm always looking for cool channels to follow. I'm Visuals, and I specialize in editing for AI and developer-focused creators. Helped a channel jump from 2K to 10K subscribers recently using a simple growth trick. Just thought I'd reach out – always down to connect with other creators!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/liselo_s</t>
+  </si>
+  <si>
+    <t>Kona</t>
+  </si>
+  <si>
+    <t>Hey! Just watched your recent video about [mention specific topic from the video - e.g., "that amazing off-roading setup"] – seriously impressive! Loved the vibe and how you explained everything. I'm a video editor who often helps out AI and developer creators, and actually helped someone grow their channel from 2k to 10k subscribers recently. I've got a few quick ideas that could really boost your reach, especially for a tech-focused channel. Happy to chat briefly if you're interested!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/raziel_7</t>
+  </si>
+  <si>
+    <t>KONFUZED</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/1jevdon26</t>
+  </si>
+  <si>
+    <t>KONFUZEDCB</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/prodkyleuk_</t>
+  </si>
+  <si>
+    <t>Konrad Mielniczuk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/joellekaralynn</t>
+  </si>
+  <si>
+    <t>Konrad Witkowski</t>
+  </si>
+  <si>
+    <t>Hey! Just wanted to say I really enjoyed your recent video - the energy was awesome! I've been experimenting with some editing techniques to help channels grow, and I noticed a couple of areas where I think some subtle tweaks could really elevate your content. I've helped some creators see a solid boost in viewership recently, especially in the tech/dev space. Would you be open to a quick 15-minute chat sometime? Just wanted to share a few ideas!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/forever_young.21</t>
+  </si>
+  <si>
+    <t>Konwey</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/slipperyfragrance</t>
+  </si>
+  <si>
+    <t>Kooper Harrison</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on luxury fragrances – really cool aesthetic and the info was on point. I’m a bit of a fragrance enthusiast myself, and I always appreciate well-made content like yours. I actually edit videos for some tech and AI creators on YouTube, helping them level up their visuals. I’ve helped a channel grow from 2k to 10k subs recently, and I'm always looking for ways to help creators like you! Just thought I’d reach out.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ejayedaproducer</t>
+  </si>
+  <si>
+    <t>Kopi</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video about the Philippines - seriously awesome footage! The drone shots were incredible, and your editing style really captured the vibe. I've been editing YouTube videos for a while and recently helped a creator boost their subscriber count by a ton. I specialize in editing for tech and AI channels, so I have some ideas that could really help your videos pop. Would you be open to a quick 15-minute chat about it? No pressure at all!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thebreezyzone</t>
+  </si>
+  <si>
+    <t>Korbyn Hopwood</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video - really vibing with the creative energy and the whole vibe you're putting out. Been a fan of similar content for a while now. I’m Visuals, and I edit for other YouTube creators, especially in the tech and AI space. Helped someone boost their subs from 2K to 10K recently. Would love to chat about some growth strategies if you're open to it - even just a quick 15-minute call!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/josia_helijah</t>
+  </si>
+  <si>
+    <t>Korey Kilburn</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [mention topic from video] - really enjoyed your style and energy! I'm a big fan of tech/creator content and I’ve been helping other channels grow their audience recently, even helped someone jump from 2K to 10K subscribers. I’m Visuals, I edit mainly for AI/dev creators. I’ve got a simple trick that can seriously boost your channel's visibility. Would you be open to a quick 15-minute chat to see if it’s a good fit?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/zeusdescendant</t>
+  </si>
+  <si>
+    <t>Korie Aaron Blount</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your channel and really dig the vibe - those cars are stunning! I’ve been editing YouTube videos for a while now and recently helped a creator jump from 2k to 10k subs with a few tweaks to their editing style and flow. I'm Visuals, and I specialize in helping AI and developer-focused channels elevate their content. I’ve got a quick growth trick that might be really helpful for you, would you be open to a 15-minute call to chat about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kb.just.him</t>
+  </si>
+  <si>
+    <t>Korith</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ja.kkeee</t>
+  </si>
+  <si>
+    <t>Kornel Niećko</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your recent video – really dig your style and the energy you bring. I'm a video editor who works with a lot of tech and AI creators, and I’ve been experimenting with some growth strategies that seem to be working pretty well.I actually helped a channel in your space jump from 2K to 10K subscribers recently. I’m Visuals, by the way, and I'd love to share a quick tip or two - maybe a 15-minute call sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jusbenny_</t>
+  </si>
+  <si>
+    <t>Korsaka Gaming Do</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jacktechofficial</t>
+  </si>
+  <si>
+    <t>kouadio lucien kouadio</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic - guess based on image/channel] - really digging your style and how you explained [Specific Detail/Element]. I’m Visuals, and I edit videos for AI/dev creators – helped a channel jump from 2k to 10k subs recently with some tweaks.I've got a few ideas that might help your channel grow, especially with the tech focus. Totally understand if you're swamped, but happy to chat for 15 mins if you're open to it!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/keeping.up.with.breezy</t>
+  </si>
+  <si>
+    <t>KrashDummy Drako</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video – really cool vibe and you're clearly putting in the work. I’m a bit of a fan myself and love how you're blending the music with the visuals.I actually help other creators with their editing and content strategy, especially those in the tech/AI space. Helped a friend go from 2k to 10k subs recently with a few tweaks. Just wondering if you ever feel like you could use a fresh pair of eyes on your edits? No pressure at all!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/officialkatelynnxbreezy</t>
+  </si>
+  <si>
+    <t>krausees</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic - based on image/channel] – really loved your energy and how you explained [Specific aspect you liked]. I'm a big fan of creators in the [Related Niche/Area] space and I've been helping other YouTubers boost their visuals and engagement recently.I'm Visuals, an editor specializing in AI and developer-focused content. I've helped one channel grow from 2K to 10K subscribers using a few simple editing tweaks. Would you be open to a quick 15-minute chat to see if I can offer some helpful advice?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/einer_roa</t>
+  </si>
+  <si>
+    <t>Kreg Mosier</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/levituccson</t>
+  </si>
+  <si>
+    <t>Kriptik Images</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [YouTube Topic] - really digging your style and the way you explained [specific aspect of the video]. I actually helped a creator boost their channel from 2K to 10K subscribers recently.I’m Visuals, and I edit videos for AI and developer-focused channels, so I understand the tech space pretty well. Just thought I'd reach out - I've got a few growth tricks that might be helpful. Would you be open to a quick 15-minute chat sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/asle_qm</t>
+  </si>
+  <si>
+    <t>Kris</t>
+  </si>
+  <si>
+    <t>Hey! Just wanted to say I really enjoyed your video on [Topic of video - try to be specific]. I'm a big fan of your style and the way you explained [Specific aspect you liked]. I'm a video editor who's helped other creators boost their channels – one I worked with went from 2K to 10K subscribers recently! I specialize in helping AI and developer-focused channels. I've got a few growth tricks that might be helpful, and I’m happy to share them if you’re interested.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/almierst</t>
+  </si>
+  <si>
+    <t>Kris ✨</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your videos - really dig the vibe and the editing style. It's clear you're putting in the work, and I've been in your shoes, helping channels grow their reach. I'm Visuals, and I edit content for other AI/dev creators. I've had some success helping channels see some serious growth recently, and I think I could offer a few pointers. Just wanted to reach out - no pressure at all!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/des_janai</t>
+  </si>
+  <si>
+    <t>Kris Bayne</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [mention video topic] - really enjoyed your style and how you explained things. I'm a video editor who's helped a few creators boost their growth recently, especially in the tech space. I've got a few ideas that might help you reach an even wider audience, and would love to chat briefly if you're open to it. Maybe a quick 15-minute call sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/carmorroa</t>
+  </si>
+  <si>
+    <t>Kris Brown</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sanz.kane</t>
+  </si>
+  <si>
+    <t>Kris Holmes</t>
+  </si>
+  <si>
+    <t>Hey! Just watched your video on [Video Topic] - really cool how you tackled the [Specific element you liked - e.g., explanation of a concept, visual style]. I’ve been helping some other creators boost their channels recently, even helped one jump from 2K to 10K subscribers. I'm Visuals, and I edit videos mainly for AI and developer-focused channels. I’ve got a few ideas that could really help your videos pop. Wanna chat for 15 mins and brainstorm?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/shneaky__</t>
+  </si>
+  <si>
+    <t>Kris Row</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your recent video – the visuals are stunning, especially the way you captured those candid moments. I'm a big fan of your style! I've been helping some YouTube creators with editing and optimizing their videos to really boost engagement. I’m Visuals, and I specialize in working with AI/dev creators. Just wanted to reach out – maybe I could offer some quick tips?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/selfmade_closer444</t>
+  </si>
+  <si>
+    <t>Kris Wichtendahl Banwart</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video on [Video Topic] - really dig the vibe and the editing style! I'm a big fan of your channel and love seeing your content. I've been helping other creators level up their videos and actually helped someone grow their channel from 2K to 10K subscribers recently. I work with AI and dev creators mostly, so I have a few ideas that could help boost your growth. Just thought I'd reach out!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/btd_capalott</t>
+  </si>
+  <si>
+    <t>Krischan Welk</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/zavion.1strapp</t>
+  </si>
+  <si>
+    <t>Krishna Ramsarran</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/smeechez99</t>
+  </si>
+  <si>
+    <t>Kristen Maleshefski</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/michaelbmf_</t>
+  </si>
+  <si>
+    <t>Kristen Watkins</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/blvckinc_</t>
+  </si>
+  <si>
+    <t>Kristi M Pentz</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video about [mention topic from video] - really cool stuff, the energy was infectious! I'm a big fan of your style, and as a fellow creator, I always love seeing fresh perspectives on tech.I’ve been helping other YouTubers level up their editing and channel growth recently, especially in the AI/dev space. Just helped someone jump from 2k to 10k subscribers, and I'm confident I could help you too. Would you be open to a quick 15-minute chat sometime to see if we’re a good fit?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/auntyfolks</t>
+  </si>
+  <si>
+    <t>Kristian Mikoylete</t>
+  </si>
+  <si>
+    <t>Hey! Just watched your recent video on [mention video topic - based on image/channel vibe] - seriously loved your energy and how you explained things. I'm a big fan of creators in the tech/AI space and always appreciate clear, engaging content. I've been helping other YouTubers with their editing &amp; visuals, actually helped someone boost their channel from 2K to 10K subs recently. I specialize in helping creators like you grow! Happy to chat about some growth tricks if you're interested – even just a quick 15-minute call.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mjay_starboi</t>
+  </si>
+  <si>
+    <t>Kristie O'Neal</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dylanyw</t>
+  </si>
+  <si>
+    <t>Kristin Sims</t>
+  </si>
+  <si>
+    <t>Hey! Just watched your recent video about [mention something specific from the video - e.g., the drone footage, the coding demo, etc.] - really cool stuff! I'm a big fan of your style and the energy you bring. I'm Visuals, and I've been helping other YouTube creators, especially those in the tech space, level up their video editing and overall channel growth. I actually helped someone boost their subscribers from 2k to 10k recently. Just thought I’d reach out – maybe I could offer some quick tips?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ghetto_treats</t>
+  </si>
+  <si>
+    <t>Kristopher J Betz</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your video on [mention topic based on image - e.g., tech reviews/gaming/music creation]. Really dig your style and the energy you bring – it’s super engaging. I've been helping other creators level up their visuals and recently helped someone grow from 2k to 10k subscribers.I'm Visuals, and I focus on editing for AI/dev channels. Got a few growth tricks that could be a good fit for your content. Happy to hop on a quick 15-minute call to chat if you’re interested!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yo.naledi</t>
+  </si>
+  <si>
+    <t>Kristopher N Hefner</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/drakonblackofficial</t>
+  </si>
+  <si>
+    <t>Krisztián Hausknecht</t>
+  </si>
+  <si>
+    <t>Hey! Huge fan of your videos, especially your recent one on [mention specific topic/video from the image – e.g., the deep dive into AI art]. Really appreciate the clear explanations and unique perspective. I'm Visuals, and I've been helping YouTube creators like yourself level up their editing and overall channel aesthetic. Helped a few tech channels see some serious growth recently, and I was wondering if you might be interested in a quick chat about how I could help your channel too.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jimmycb17</t>
+  </si>
+  <si>
+    <t>K-RobNG</t>
+  </si>
+  <si>
+    <t>Hey! Just stumbled across your video on [Video Topic - guess from image if possible] - really dig your style and the way you presented that! Been working with YouTube creators for a while now and actually helped a channel recently jump from 2k to 10k subscribers, mostly through a few simple editing tweaks.I’m Visuals, and I specialize in editing for AI and developer-focused channels. I've got a pretty solid growth trick that seems to work really well for tech channels. Would you be open to a quick 15-minute call to chat about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/scales_aretha</t>
+  </si>
+  <si>
+    <t>KromaLR</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jackiemontantes</t>
+  </si>
+  <si>
+    <t>Kron Salihu</t>
+  </si>
+  <si>
+    <t>Hey! Just wanted to say I really enjoyed your recent video – the energy was awesome! I’m a big fan of your style.I actually help other YouTubers with their editing and visuals. I recently helped a creator boost their channel significantly, and I’m pretty confident I could offer some actionable tips for yours too. Just thought I’d reach out!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/j_torres_35</t>
+  </si>
+  <si>
+    <t>Krystal Pena</t>
+  </si>
+  <si>
+    <t>Hey! Just saw your video about [mention topic from image/channel] - really enjoyed your style and how you explained things. I’ve been editing for YouTube creators for a while now, actually helped a channel boost their subscriber count from 2K to 10K recently, mostly focusing on AI and developer content. I'm Visuals, and I noticed a couple of small tweaks that could really elevate your videos. I’m not trying to sell you anything, just genuinely think I could help. Happy to chat for 15 minutes if you're open to it—no pressure at all!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kinyahearmenow</t>
+  </si>
+  <si>
+    <t>Krystal Rehorn (Robertson)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,13 +1164,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,13 +1208,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,18 +1533,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE2015-94EE-4CD3-8429-8AD466D06123}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="A2:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J192" sqref="J192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="118.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -642,57 +1574,34 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -703,33 +1612,30 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -740,90 +1646,87 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -834,575 +1737,629 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
+      <c r="A16" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
+      <c r="A17" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
+      <c r="A18" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
+      <c r="A19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>37</v>
+      <c r="A22" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
+      <c r="A23" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>39</v>
+      <c r="A24" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
+      <c r="A25" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
+        <v>63</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>61</v>
+      <c r="A36" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
+        <v>86</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -1410,27 +2367,27 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -1444,244 +2401,2620 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
-        <v>18</v>
+        <v>92</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
+        <v>100</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>102</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>106</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
+        <v>112</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>110</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>72</v>
+      <c r="A52" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>21</v>
+      <c r="A53" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
+        <v>122</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>120</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" t="b">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
+        <v>124</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>120</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" t="b">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-      <c r="G56" t="b">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" t="s">
+        <v>165</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" t="s">
+        <v>175</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" t="s">
+        <v>175</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" t="s">
+        <v>185</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" t="s">
+        <v>187</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" t="s">
+        <v>185</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>190</v>
+      </c>
+      <c r="E83" t="s">
+        <v>191</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>190</v>
+      </c>
+      <c r="E84" t="s">
+        <v>191</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" t="s">
+        <v>211</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>210</v>
+      </c>
+      <c r="E92" t="s">
+        <v>211</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>210</v>
+      </c>
+      <c r="E94" t="s">
+        <v>211</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>210</v>
+      </c>
+      <c r="E96" t="s">
+        <v>211</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97" t="s">
+        <v>221</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" t="s">
+        <v>223</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>224</v>
+      </c>
+      <c r="E98" t="s">
+        <v>225</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>228</v>
+      </c>
+      <c r="E99" t="s">
+        <v>229</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>230</v>
+      </c>
+      <c r="B100" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" t="s">
+        <v>229</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>228</v>
+      </c>
+      <c r="E102" t="s">
+        <v>229</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>236</v>
+      </c>
+      <c r="E103" t="s">
+        <v>237</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" t="s">
+        <v>237</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>242</v>
+      </c>
+      <c r="E106" t="s">
+        <v>243</v>
+      </c>
+      <c r="F106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>244</v>
+      </c>
+      <c r="B107" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C108" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F108" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" t="s">
+        <v>247</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>250</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>251</v>
+      </c>
+      <c r="B113" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>250</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>253</v>
+      </c>
+      <c r="B114" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>255</v>
+      </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>256</v>
+      </c>
+      <c r="B115" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>258</v>
+      </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>259</v>
+      </c>
+      <c r="B116" t="s">
+        <v>260</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>261</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" t="s">
+        <v>263</v>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>264</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>267</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>268</v>
+      </c>
+      <c r="B119" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>270</v>
+      </c>
+      <c r="B122" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>267</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>272</v>
+      </c>
+      <c r="B123" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>272</v>
+      </c>
+      <c r="B124" t="s">
+        <v>273</v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>267</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" t="s">
+        <v>275</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>276</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>277</v>
+      </c>
+      <c r="B126" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>276</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>279</v>
+      </c>
+      <c r="B127" t="s">
+        <v>280</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>281</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>282</v>
+      </c>
+      <c r="B128" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>284</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>285</v>
+      </c>
+      <c r="B129" t="s">
+        <v>286</v>
+      </c>
+      <c r="C129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>287</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>288</v>
+      </c>
+      <c r="B130" t="s">
+        <v>289</v>
+      </c>
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>290</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>291</v>
+      </c>
+      <c r="B131" t="s">
+        <v>292</v>
+      </c>
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>293</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>294</v>
+      </c>
+      <c r="B132" t="s">
+        <v>295</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>294</v>
+      </c>
+      <c r="B133" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>293</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>296</v>
+      </c>
+      <c r="B134" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>298</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>299</v>
+      </c>
+      <c r="B135" t="s">
+        <v>300</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>299</v>
+      </c>
+      <c r="B136" t="s">
+        <v>300</v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>298</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>301</v>
+      </c>
+      <c r="B137" t="s">
+        <v>302</v>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>303</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>304</v>
+      </c>
+      <c r="B138" t="s">
+        <v>305</v>
+      </c>
+      <c r="C138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>306</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>307</v>
+      </c>
+      <c r="B139" t="s">
+        <v>308</v>
+      </c>
+      <c r="C139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>309</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>310</v>
+      </c>
+      <c r="B140" t="s">
+        <v>311</v>
+      </c>
+      <c r="C140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>309</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>312</v>
+      </c>
+      <c r="B141" t="s">
+        <v>313</v>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>314</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>315</v>
+      </c>
+      <c r="B142" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>317</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>318</v>
+      </c>
+      <c r="B143" t="s">
+        <v>319</v>
+      </c>
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>320</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>321</v>
+      </c>
+      <c r="B144" t="s">
+        <v>322</v>
+      </c>
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>323</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>324</v>
+      </c>
+      <c r="B145" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>324</v>
+      </c>
+      <c r="B146" t="s">
+        <v>325</v>
+      </c>
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>323</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>326</v>
+      </c>
+      <c r="B147" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" t="b">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>328</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>329</v>
+      </c>
+      <c r="B148" t="s">
+        <v>330</v>
+      </c>
+      <c r="C148" t="b">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>331</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>332</v>
+      </c>
+      <c r="B149" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>334</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>335</v>
+      </c>
+      <c r="B150" t="s">
+        <v>336</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>335</v>
+      </c>
+      <c r="B151" t="s">
+        <v>336</v>
+      </c>
+      <c r="C151" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>334</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>337</v>
+      </c>
+      <c r="B152" t="s">
+        <v>338</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>337</v>
+      </c>
+      <c r="B153" t="s">
+        <v>338</v>
+      </c>
+      <c r="C153" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>334</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>339</v>
+      </c>
+      <c r="B154" t="s">
+        <v>340</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>339</v>
+      </c>
+      <c r="B155" t="s">
+        <v>340</v>
+      </c>
+      <c r="C155" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>334</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>341</v>
+      </c>
+      <c r="B156" t="s">
+        <v>342</v>
+      </c>
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>334</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>343</v>
+      </c>
+      <c r="B157" t="s">
+        <v>344</v>
+      </c>
+      <c r="C157" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>345</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>346</v>
+      </c>
+      <c r="B158" t="s">
+        <v>347</v>
+      </c>
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>348</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>349</v>
+      </c>
+      <c r="B159" t="s">
+        <v>350</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>349</v>
+      </c>
+      <c r="B160" t="s">
+        <v>350</v>
+      </c>
+      <c r="C160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>348</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>351</v>
+      </c>
+      <c r="B161" t="s">
+        <v>352</v>
+      </c>
+      <c r="C161" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>353</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>354</v>
+      </c>
+      <c r="B162" t="s">
+        <v>355</v>
+      </c>
+      <c r="C162" t="b">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>356</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>357</v>
+      </c>
+      <c r="B163" t="s">
+        <v>358</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>357</v>
+      </c>
+      <c r="B164" t="s">
+        <v>358</v>
+      </c>
+      <c r="C164" t="b">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>356</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>359</v>
+      </c>
+      <c r="B165" t="s">
+        <v>360</v>
+      </c>
+      <c r="C165" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>361</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>362</v>
+      </c>
+      <c r="B166" t="s">
+        <v>363</v>
+      </c>
+      <c r="C166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>364</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>365</v>
+      </c>
+      <c r="B167" t="s">
+        <v>366</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>365</v>
+      </c>
+      <c r="B168" t="s">
+        <v>366</v>
+      </c>
+      <c r="C168" t="b">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>364</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>367</v>
+      </c>
+      <c r="B169" t="s">
+        <v>368</v>
+      </c>
+      <c r="C169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>369</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>370</v>
+      </c>
+      <c r="B170" t="s">
+        <v>371</v>
+      </c>
+      <c r="C170" t="b">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>372</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>373</v>
+      </c>
+      <c r="B171" t="s">
+        <v>374</v>
+      </c>
+      <c r="C171" t="b">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>372</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InstgramOutput.xlsx
+++ b/InstgramOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Instagram rpa bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC4BA3C-ACD1-41AB-9954-9B73D4CCF8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6914EF-F328-4210-9188-DAA72C791EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB2CBD43-8825-4C50-9713-C3E6C0B6D132}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB2CBD43-8825-4C50-9713-C3E6C0B6D132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="376">
   <si>
     <t>Profile url</t>
   </si>
@@ -1150,6 +1150,9 @@
   </si>
   <si>
     <t>Krystal Rehorn (Robertson)</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -1237,9 +1240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1277,7 +1280,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1383,7 +1386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1525,7 +1528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1533,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE2015-94EE-4CD3-8429-8AD466D06123}">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J192" sqref="J192"/>
@@ -4799,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>351</v>
       </c>
@@ -4819,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>354</v>
       </c>
@@ -4839,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>357</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>357</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>359</v>
       </c>
@@ -4896,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>362</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>365</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>365</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>367</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>370</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>373</v>
       </c>
@@ -5011,6 +5014,154 @@
       </c>
       <c r="G171" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>246</v>
+      </c>
+      <c r="B172" t="s">
+        <v>247</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>246</v>
+      </c>
+      <c r="B173" t="s">
+        <v>247</v>
+      </c>
+      <c r="C173" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" t="b">
+        <v>0</v>
+      </c>
+      <c r="H173" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>246</v>
+      </c>
+      <c r="B174" t="s">
+        <v>247</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>246</v>
+      </c>
+      <c r="B175" t="s">
+        <v>247</v>
+      </c>
+      <c r="C175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="b">
+        <v>0</v>
+      </c>
+      <c r="H175" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>246</v>
+      </c>
+      <c r="B176" t="s">
+        <v>247</v>
+      </c>
+      <c r="C176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>246</v>
+      </c>
+      <c r="B177" t="s">
+        <v>247</v>
+      </c>
+      <c r="C177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="b">
+        <v>0</v>
+      </c>
+      <c r="H177" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" t="s">
+        <v>247</v>
+      </c>
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>246</v>
+      </c>
+      <c r="B179" t="s">
+        <v>247</v>
+      </c>
+      <c r="C179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="b">
+        <v>0</v>
+      </c>
+      <c r="H179" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/InstgramOutput.xlsx
+++ b/InstgramOutput.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UPDATED INSTAGRAM BOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CPYRUS IG BOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A41A61-732C-40DC-9B37-99B1617DB6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5056740-0E6A-46DF-B0AD-01FB218D243D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB2CBD43-8825-4C50-9713-C3E6C0B6D132}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="178">
   <si>
     <t>Profile url</t>
   </si>
@@ -46,6 +46,583 @@
   </si>
   <si>
     <t>Sent Comment?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/16bitvet</t>
+  </si>
+  <si>
+    <t>Hey! Loving the focused energy in this shot - really captures the vibe. I'm Vanessa, a branding artist and I've had the pleasure of working with so many amazing creators within the Regiment GG fam, like Echo, Janna, and a few others you might know. It's been awesome helping them level up their visuals and messaging. 
+I've got a ton of ideas swirling around for your channel, too. I'm genuinely excited to chat about how we can refresh your branding and make it really pop. Interested in exploring some options?</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vampykittyclaire</t>
+  </si>
+  <si>
+    <t>Wow, that artwork has such an enchanting, regal feel! The details are incredible, really captures a sense of mystery. I'll introduce myself - I'm Vanessa, a branding artist who loves helping creators level up their streaming journey. I’ve been designing for a bunch of Regiment GG folks (shout out to Frostbite, Zylia, and a few others!), and would love to chat with you too.
+I've got so many ideas buzzing around about how we can revamp your channel – fresh looks, consistent visuals, the whole deal. Seriously, I’m excited to share them! Would you be open to a quick brainstorm sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/swooshmamba</t>
+  </si>
+  <si>
+    <t>Wow, loving the setup and overall vibe! Really striking visuals here – a clear focus on quality. I’ve been Vanessa, a branding artist, and I’m so passionate about helping creators like you elevate their streams. I've designed for several Regiment GG members, and I know a few folks you likely know too – could be a great fit!
+I've got tons of ideas brewing already about how we can truly make your channel shine, from logo refinement to overlay magic. Super excited to chat – would you be open to exploring some quick branding refresh possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aaron1handedgamer</t>
+  </si>
+  <si>
+    <t>Wow, loving the vibe of this stream! Really dig the setup and the focus you're bringing. I'm Vanessa, a branding artist who helps streamers like you really shine - I've had the pleasure of designing for a few Regiment GG creators and some of your friends like [mention 1-2 mutual friends if possible].
+I'm bursting with ideas to revamp your channel and truly make it pop - think a fresh look, consistent visuals, and a brand that tells *your* story. Would love to chat and share some initial thoughts if you're interested!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gb_mentality</t>
+  </si>
+  <si>
+    <t>Profile 1</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hooliganfromwyo</t>
+  </si>
+  <si>
+    <t>Wow, that’s a seriously cool setup! Loving the cozy vibes and how you're incorporating personal touches. I’m Vanessa, a branding artist, and I’m all about helping creators like you really shine. I’ve designed for a bunch of Regiment GG folks - you probably know some like Kai, Rina, and Leo.
+I've got tons of ideas bubbling about how we can amplify your channel’s look and feel, attracting even more viewers. Super excited to share my thoughts and see if we're a good fit—interested in chatting?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/staffsgt_buckie</t>
+  </si>
+  <si>
+    <t>Wow, love the aesthetic! Such a cool vibe going on here. I'm Vanessa, a branding artist, and I specialize in helping creators like you really shine on Twitch. I've had the pleasure of working with so many amazing Regiment GG folks – you might know some like Alex and Jay - and I'm genuinely excited about the potential here!
+I've got so many ideas swirling around for how we could elevate your channel's look and feel - think cohesive overlays, a memorable profile, and a consistent visual story. Would you be open to chatting about some possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/toyotech13</t>
+  </si>
+  <si>
+    <t>Whoa, that setup is insane! The lighting and component choices really pop. I'm Vanessa, a branding artist – I've had the pleasure of working with a bunch of Regiment GG creators, and I know a few folks you probably know too. 
+Seriously impressed with the dedication to the craft. I’ve got a ton of ideas swirling around about how we can totally elevate your channel's look and feel – would love to chat if you're open to it!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/loganlouks</t>
+  </si>
+  <si>
+    <t>Woah, the lighting in this shot is seriously vibing! Such a cool aesthetic. I’m Vanessa, a branding artist who works with creators like a bunch of Regiment GG folks - you might know Kai, Wren, or maybe even Dex. I love helping streamers really nail their identity.
+I’m genuinely excited about the potential to level up your channel – got tons of ideas swirling on how we can really make it pop. Interested in chatting about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cheescak3</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/shawnikus.comedy</t>
+  </si>
+  <si>
+    <t>Woah, the detail in this uniform is incredible! Really showcases dedication and precision. I’m Vanessa, a branding artist who specializes in helping creators like you level up your online presence. I’ve had the pleasure of designing for several Regiment GG folks – shoutout to Blitz, Rogue, and a few others – and I’d love to chat about your channel too.
+Seriously, I've got a ton of ideas swirling about how we could freshen up your brand and make it even more impactful. Intrigued to explore some possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hiddentalentesports</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fungoose_cosplay</t>
+  </si>
+  <si>
+    <t>Wow, that setup is seriously vibing with the energy! Love the creative backdrop and attention to detail - you're clearly putting in the effort. I'm Vanessa, a branding artist who works with streamers and creators to really level up their channel identity. I’ve actually designed branding for quite a few Regiment GG folks and know a few mutual friends around the scene too.
+I have so many ideas swirling around for how we could elevate your channel's look and feel – a fresh logo, consistent overlays, maybe even a new intro sequence! I’d love to chat more if you’re open to exploring some revamps – interested in a quick brainstorm?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/trevorrocho</t>
+  </si>
+  <si>
+    <t>Woah, love the vibe here – super unique aesthetic! I'm Vanessa, a branding artist specializing in helping streamers really shine. I'm actually working with a bunch of Regiment GG folks (big fan of Kai Cenat, Nick Allen, and Ludwig!) and have some serious ideas for your channel too. 
+I've been brainstorming ways to really elevate your look and feel - think more cohesive visuals, custom overlays, and a brand story that *pops*. Seriously excited to chat about how we can level up your channel together. Interested in exploring some ideas?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/alex.tnadrinks</t>
+  </si>
+  <si>
+    <t>Loving the Regiment GG aesthetic - that clean, structured vibe really pops! I’ve been doing branding for a few creators within the community, like Luminary and a few others you might know. I'm Vanessa, a branding artist helping streamers level up their channels and build stronger connections with their audience. 
+I've got tons of ideas brewing on how we can amplify your channel's identity and really make it shine. Would love to chat about how we can work together! Interested in exploring some options?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/havocleaguegaming</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hypn0tic9_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/manupplays</t>
+  </si>
+  <si>
+    <t>Love the setup! Such a clean and focused vibe – really speaks to your dedication. I'm Vanessa, a branding artist, and I’m actually working with a bunch of Regiment GG folks already (shoutout to Zephyr and others!). It's awesome seeing everyone level up their streams.
+I'm curious to chat about how we can elevate your channel's identity. I’ve got tons of ideas – little tweaks can make a big difference! Interested in exploring some possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/theashburns</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wardrumsofj5</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ugotowened_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/uhohjoe11b</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marcwrecs</t>
+  </si>
+  <si>
+    <t>Woah, love the vibe! That setup is seriously impressive - really captures a focused, creative energy. I'm Vanessa, a branding artist, and I work with a lot of Regiment GG creators, like a few of your mutual friends too. Helping streamers level up their brand identity is my thing!
+I’ve been brainstorming so many ideas to help your channel really pop and resonate even more. Super excited to chat about how we can revamp your look and feel – interested in bouncing some ideas around?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_drew.99</t>
+  </si>
+  <si>
+    <t>Wow, the stage presence is incredible! Such a captivating energy radiating from this shot - seriously impressive. I'm Vanessa, a branding artist, and I've had the pleasure of designing for a bunch of Regiment GG creators like Zero, Kaelin, and some familiar faces.
+I've got tons of ideas swirling around for how we could elevate your channel’s branding – think polished aesthetics and a stronger connection with your audience. Super excited to chat, are you interested in exploring some possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/h0rn3t360</t>
+  </si>
+  <si>
+    <t>Loving the aesthetic! Such a vibe going on here. I’m Vanessa, a branding artist who specializes in helping streamers like you really shine. I've been designing for a bunch of Regiment GG creators, worked with folks like Zyre and a few others you might know. 
+Really excited to chat about revamping your channel - I'm bursting with ideas! Keen to hear if you’re interested in exploring some fresh looks and a stronger brand identity?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/etrayux</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/michaelplayz1_offcial</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/deejbeaudry_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/honzagorgy</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dangerousdevelopment</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/deity_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/katanaafterdark</t>
+  </si>
+  <si>
+    <t>Love the vibe of this setup – feels cozy and focused! I'm Vanessa, a branding artist who helps streamers level up their visuals. I’ve designed for a bunch of Regiment GG creators, work with guys like JLB and Juke too. Seeing your setup gave me so many ideas!
+Seriously, I have tons of thoughts on how we could revamp your channel - from logo to overlay designs, it all feels fresh. Interested in chatting about some quick wins?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jburt278</t>
+  </si>
+  <si>
+    <t>Love the cozy vibe of this shot! Really captures a chill moment. I’m Vanessa, a branding artist – been working with a bunch of Regiment GG folks like Kai Cenat and Mochie. It's been super fun seeing how strong visuals elevate their channels. 
+Seriously excited about the potential here – got a bunch of fresh ideas on how we could revamp your channel's branding. Interested in exploring some concepts?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/baddiestreams</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hanshotfirst664</t>
+  </si>
+  <si>
+    <t>Loving the vibes here! Such a cool, unique aesthetic – really captivating. I'm Vanessa, a branding artist specializing in helping streamers level up their channels. I'm actually working with a bunch of Regiment GG folks right now, alongside some mutual friends like Lunar and Kai, so I totally get the energy you’re going for.
+I'm buzzing with ideas on how we could elevate your channel's look and feel, it's all about building a memorable identity. Would love to chat about some possible revamps when you’ve got a moment, curious to see if you'd be interested!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/austinsmith0789</t>
+  </si>
+  <si>
+    <t>Whoa, loving the vibes of this pic! The composition is really striking. I'm Vanessa, a branding artist, and I've actually designed for a few Regiment GG creators – you might know Echo or Kitsune! It’s awesome seeing the community grow.
+I've got a bunch of ideas swirling about how we could elevate your channel's branding and really make it pop. Would love to chat about it if you're interested!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bodukeadventures</t>
+  </si>
+  <si>
+    <t>Loving the focused energy in this pic! It really speaks to dedication. I'm Vanessa, a branding artist who works with streamers - particularly a lot of Regiment GG folks like Aella &amp; Rae - always so fun to collaborate! 
+I’ve got tons of ideas brewing for your channel – think fresh looks, consistent vibes, the whole shebang! Keen to chat about how we can totally revamp your presence? Let's vibe!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/boley_damion</t>
+  </si>
+  <si>
+    <t>Wow, congrats on the graduation! Such a celebratory vibe in this pic – you all look fantastic. I'm Vanessa, a branding artist who loves helping streamers elevate their channels. I've had the pleasure of designing for a few Regiment GG creators (shoutout to Kai and Alex!) and a few mutual friends too! 
+Seriously excited about the potential here – I'm bursting with ideas on how we can revamp your channel's branding to really make it pop! Interested in chatting about possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/averagemobile</t>
+  </si>
+  <si>
+    <t>Woah, that’s a seriously cool setup! Love the vibe - it's got that perfect blend of cozy and gaming energy. I'm Vanessa, a branding artist and I've had the pleasure of working with several Regiment GG creators – you know, like Kai, Ryuu, and even a little with Sharo. It’s always a joy collaborating with such a talented group!
+I’m genuinely excited about the potential to help your channel really shine, I’m brimming with ideas to revamp your visual identity and content strategy. Would you be open to a quick chat about how we could elevate your brand?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/juliengvw</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ddagaming2</t>
+  </si>
+  <si>
+    <t>Whoa, loving the setup and that vibrant energy! Seriously impressed with the attention to detail. I'm Vanessa, a branding artist, and I's been working with a bunch of Regiment GG folks - shoutout to Lunar, Zero, and the whole crew!
+I's helped them refine their visuals and grow their channels. Got tons of ideas to revamp yours too – think cohesive aesthetics and killer channel presence. Interested in chatting about how we can do this?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jordan_jager21</t>
+  </si>
+  <si>
+    <t>Wow, loving the setup and vibe! The color palette is seriously working - so calming and inviting. I’m Vanessa, a branding artist, and I specialize in helping creators like you really shine in the streaming world. I've had the pleasure of designing for several Regiment GG creators – shoutout to Frost, Static, and a few others! 
+I'd love to chat about how we can elevate your channel’s visual identity. Got tons of ideas bubbling up already and I'm buzzing to explore them with you. Interested in bouncing some ideas around?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/da_maff</t>
+  </si>
+  <si>
+    <t>Love the vibe of this setup! Really clean and focused—it totally speaks to a dedicated streamer. I'm Vanessa, a branding artist who works with creators, especially within the Regiment GG community. I've designed branding for a few of your friends like [mention 2-3 mutual friends] and I'm always so inspired by the creative energy there.
+I'm buzzing with ideas for how we could elevate your channel's aesthetic and overall brand presence – think refined overlays, a signature color palette, and more! Would you be open to chatting about it? I'm genuinely excited to brainstorm with you!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rclarkphoto</t>
+  </si>
+  <si>
+    <t>That golden hour glow hitting the water is just *chef’s kiss*. Seriously stunning! I'm Vanessa, a branding artist helping streamers level up – I’ve had the pleasure of designing for a bunch of Regiment GG creators (you might know Kai, Alex, or Luna!), and I’m always stoked to meet new faces.
+I’ve got a ton of ideas swirling around for how we could revamp your channel’s vibe and really make it pop. Super excited to chat if you’re interested in exploring some fresh branding concepts!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/johnanthonyp_</t>
+  </si>
+  <si>
+    <t>Wow, that sunset reflecting on the water is absolutely mesmerizing! Such a serene and peaceful vibe. I'm Vanessa, a branding artist helping streamers level up their online presence. I’ve had the pleasure of designing for a few Regiment GG creators – shoutout to Ash and Kael! 
+Really excited to chat about how we could give your channel a serious glow-up! Got a bunch of ideas brewing already - interested in exploring some revamp options?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sean_patty</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fluckinoob</t>
+  </si>
+  <si>
+    <t>Woah, that setup is seriously impressive! Love the organized chaos and the vibrant collection. I'm Vanessa, a branding artist who works with streamers - actually helped a bunch of Regiment GG creators nail their visuals, including a few you might know like [mention 1-2 mutual friends].
+I’ve got tons of ideas bouncing around for how we could totally revamp your channel's look and feel to really stand out. Interested in chatting about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mondominibus</t>
+  </si>
+  <si>
+    <t>Whoa, this setup is seriously impressive! Love the layered lighting and the whole vibe - so much attention to detail. I'm Vanessa, a branding artist, and I've been working with a bunch of creators in the Regiment GG space, like Zephyr and a few others you might know.
+I've got tons of ideas swirling around about how we could really elevate your channel's look and feel, and I’m genuinely excited to share them! Super interested in chatting about revamping things - would love to brainstorm with you if you’re up for it.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/s33k_bloodedge</t>
+  </si>
+  <si>
+    <t>Wow, that guitar's finish is seriously stunning! The grain is so unique. I'm Vanessa, a branding artist helping streamers like you elevate their channels. I’ve actually designed branding for a bunch of Regiment GG folks – you might know Kai Cenat, AustinShowerman, and Nick.
+I've got tons of ideas to revamp your channel's look and feel – really create a vibe! Interested in chatting about some possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/redflier.ray</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/raisuun</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gloriousbagel</t>
+  </si>
+  <si>
+    <t>Wow, the setup’s looking great! Really digging the clean aesthetic and attention to detail - it's really eye-catching. I'm Vanessa, a branding artist specializing in helping streamers like you truly shine. I’ve been designing for a few Regiment GG creators already, and know a few friends like [mention 1-2 mutual friends]. 
+Got tons of ideas on how to elevate your channel’s overall vibe and personality – excited to chat about a potential revamp! Keen to hear your thoughts - interested in exploring some possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fredrosa87</t>
+  </si>
+  <si>
+    <t>Such a captivating image! Really love the vibe—that layered effect and lighting are top-notch. I'm Vanessa, a branding artist and I'm all about helping creators like you shine online, especially within the Regiment GG space. I've been working with a few familiar faces like Zerkaa and Mini-Mark, alongside the gang, so I understand the community's style. 
+I've got so many ideas brewing on how we can amplify your channel's identity and truly make it pop! Would love to chat about revamping your look and feel – interested in exploring some possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ed_oribio</t>
+  </si>
+  <si>
+    <t>Wow, loving the vibrant energy &amp; intentional aesthetic in this image! Really speaks to a distinct personality. I'm Vanessa, a branding artist who helps streamers level up their channels – I've had the pleasure of designing for a few Regiment GG creators like Kai Cenat &amp; everyone in the OfflineTV fam.
+Got so many fresh ideas brewing to help your channel truly shine and connect with your audience! Super excited to chat about a potential revamp – would you be open to brainstorming?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kelseymarie04</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/owlmightyclips</t>
+  </si>
+  <si>
+    <t>Loving the focused energy in this shot! Really captures dedication. I'm Vanessa, a branding artist – I’ve had the pleasure of working with several Regiment GG creators like Zyre and Vaxmil, plus a few mutuals. It's clear you're building something special here.
+I’m overflowing with ideas on how we can refine your channel’s visuals and solidify your identity. Would love to chat about revamping your branding and seeing your channel really *pop*. Interested in exploring that?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/veletete_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/truejiy3ep</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cognizansthenextlevel</t>
+  </si>
+  <si>
+    <t>Wow, the atmosphere you're capturing here is incredible! Love the dramatic lighting and the overall vibe – really draws you in. I'm Vanessa, a branding artist who helps streamers like you level up their channels. I've had the pleasure of working with a few Regiment GG folks—you know, friends with Liam and Sarah—and I'd genuinely love to brainstorm some ideas for *your* channel. 
+Seriously, I've got a ton of ideas swirling around how we can revamp your visuals and really make you stand out. Would you be open to a quick chat sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gedge72</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gran_reo</t>
+  </si>
+  <si>
+    <t>Wow, really loving the aesthetic – that layered composition and the subtle color palette create such a captivating vibe! I’m Vanessa, a branding artist helping streamers level up their presence. I've had the pleasure of designing for a few Regiment GG creators like Lunar and Kaelen, and know a bit about what works!
+Got so many ideas swirling for how we can elevate your channel's look &amp; feel. Would love to chat and share some revamp concepts – interested in exploring that?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bellator_l3</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/heytingmarty</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/verminbe.tv</t>
+  </si>
+  <si>
+    <t>Woah, that Spartan armor detail is incredible! Really captures the intensity of the battle. I'm Vanessa, a branding artist who specializes in helping streamers like you level up your online presence. I've had the pleasure of working with several Regiment GG creators – you might know some like Jax and Kael - and always love the community vibe.
+Seriously, I've got tons of ideas bubbling on how we could revamp your channel’s look and feel to really pop! So excited to share my thoughts - would you be interested in chatting?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dinoghowyoudoin</t>
+  </si>
+  <si>
+    <t>Wow, loving the cozy vibe here! Such a great setup - it really feels like a dedicated space for creating. I'm Vanessa, a branding artist who's helped a ton of Regiment GG creators (you know, like Echo and a few others!) level up their streams.
+I've been brainstorming a bunch of ideas to give your channel a real refresh and elevate that aesthetic. Seriously, I have so many thoughts on how we can bring your unique personality through. Interested in chatting about some possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sorcerer_voncroy</t>
+  </si>
+  <si>
+    <t>Woah, the vibe here is *chef's kiss*! Love the aesthetic – really speaks to a strong sense of personality. I’m Vanessa, a branding artist, and I've been working with a bunch of Regiment GG creators like Zenith and a few others you might know - it's been a blast!
+I’ve got tons of ideas for revamping your channel's look and feel to really make you shine. Interested in exploring some fresh branding concepts? Let's chat!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/buckziggy</t>
+  </si>
+  <si>
+    <t>Wow, the vibes here are seriously cool! Love the aesthetic – the composition and color palette just work so well. I’m Vanessa, a branding artist who helps creators like you really shine in the streaming world. I’ve actually had the pleasure of designing for a few Regiment GG folks and mutual friends like [mention 1-2 names if possible]!
+I'm buzzing with ideas about how we can elevate your channel and build a really cohesive brand identity. Super excited to chat more—would you be open to exploring some revamp possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tidbits91</t>
+  </si>
+  <si>
+    <t>That ice cream looks amazing! Seriously vibing with the chill aesthetic in this pic. I'm Vanessa, a branding artist specializing in helping streamers like you really shine. I've had the pleasure of working with a bunch of creators in the Regiment GG space – you might know some like Kael, or Luminary!
+Been brainstorming tons of ideas on how we could elevate your channel's look and feel— really excited to share them! Interested in a quick chat about a potential revamp?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/warriorgametherapy</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mouserat2217</t>
+  </si>
+  <si>
+    <t>Wow, the atmosphere here is incredible! Really loving the vibe – it feels so authentic and engaging. I’m Vanessa, a branding artist, and I'm genuinely excited about helping creators like you shine. I've had the pleasure of designing branding for a few Regiment GG folks, know some mutuals like Zeph &amp; Kael, and would absolutely love to chat about how we can elevate your channel.
+I've got a ton of ideas swirling around for how we can give your channel a serious refresh, truly reflecting your personality and attracting your ideal audience. Intrigued to explore some possibilities together?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jiridykast</t>
+  </si>
+  <si>
+    <t>Woah, that's a clean ride! Love the whole vibe and the team energy – seriously awesome. I’m Vanessa, a branding artist specializing in helping creators level up their streams. I’ve designed branding for a bunch of Regiment GG folks, including some of your friends—you know, Liam, Alex, and the crew.
+I've got so many ideas bubbling about how we could give your channel a fresh look and feel – totally revamp the aesthetic! Would love to chat about it if you're open to exploring some new possibilities. 😉</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/irish0pirate</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gods_warrior23</t>
+  </si>
+  <si>
+    <t>Woah, love the vibe radiating from this image! Seriously cool setup - the detail is incredible. I'm Vanessa, a branding artist, and I'm kinda obsessed with helping streamers like you find their unique identity. I've had the pleasure of designing for a few Regiment GG creators, like Echo and a few of the crew, and it always sparks something! 
+I've got a bunch of ideas swirling around on how we could elevate your channel's look and feel. Always happy to share how to make your branding really pop - interested in chatting?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/typicalchevy</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/arfles</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sokratical</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/denbyonig</t>
+  </si>
+  <si>
+    <t>Wow, really striking visuals! Love the moody, intense vibe here. I'm Vanessa, a branding artist, and I've had the pleasure of designing for a few Regiment GG creators – you might know some like Zephyr or Lunar! It’s always exciting to see how we can elevate a streamer's identity.
+I've got a bunch of ideas swirling around for your channel, honestly! We could really sharpen your look and feel. Keen to chat about how we can bring it all to life? Let me know if you're interested!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/isharps_94</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/doritothechip</t>
+  </si>
+  <si>
+    <t>Wow, love the cozy vibes in this shot! Really great energy. I'm Vanessa, a branding artist—I've actually had the pleasure of designing for a few Regiment GG creators (you might know Kai, or maybe even Sparrow!). Feels like you're building something special here. 
+I’ve got a ton of ideas swirling around on how we could elevate your channel's look and feel. Super keen to chat about it if you’ve got a few minutes - interested in exploring some branding tweaks?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/benteeeeeeeeeeee</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/austin.c.allen_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jamaicangamer_</t>
+  </si>
+  <si>
+    <t>Woah, that setup is seriously impressive! Love the organized vibe and the attention to detail - really shows dedication. Hey, I'm Vanessa, a branding artist helping streamers like you level up their presence. I’m working with a bunch of Regiment GG folks (shoutout to Kai Cenat and friends!) and would love to chat about your channel's look &amp; feel. 
+Got tons of ideas to revamp your brand and make it *pop* – think refreshed logo, consistent visuals, all that good stuff. Really excited to explore ways we can elevate your channel together. Interested in a quick brainstorm?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/backintimeemporium</t>
+  </si>
+  <si>
+    <t>Loving the vibe of this setup! Such a clean and focused space—really conducive to creativity. I'm Vanessa, a branding artist who specializes in helping streamers and creators really define their visual identity. I've had the pleasure of working with several Regiment GG folks – you might know Jynx or Rina – and I'm so excited to see how we can elevate your channel's presence.
+I have so many ideas swirling around about how we can revamp your channel's look and feel, really amplifying your unique personality. Keen to chat more about it and explore possibilities? Let me know if you’re interested!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/oifmedicm6</t>
+  </si>
+  <si>
+    <t>Seriously loving the vibe &amp; natural light in this pic! ✨ I’ve been working with so many amazing Regiment GG creators – shoutout to Kai Cenat, Ludwig, and Sykkuno! I’m Vanessa, a branding artist helping streamers like you level up their channels.
+Been designing for a few familiar faces, and I have so many ideas already on how we can give your channel a fresh, engaging look. Super excited to chat – interested in exploring a revamp?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/t0m_reeves</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ainjelfyre</t>
+  </si>
+  <si>
+    <t>Wow, that's a really striking image! The texture and contrast are super captivating. I’m Vanessa, a branding artist who loves helping streamers like you level up their visual identity. 
+I’ve actually designed branding for a few Regiment GG creators—we have some mutual friends! I’m buzzing with ideas on how we can revamp your channel’s look and feel, wanna chat about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thef0rgiven</t>
+  </si>
+  <si>
+    <t>That patch is seriously cool! Love the art style and the vibe it brings to the setup. Hey, I’m Vanessa, a branding artist who’s been helping creators like you level up their streams.
+I've actually designed branding for a few folks over at Regiment GG and some mutual friends, so I get the aesthetic. I'm bursting with ideas on how we could revamp your channel’s look, super excited to share—interested in chatting?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/primealphawolfe</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fabreezio94</t>
+  </si>
+  <si>
+    <t>Wow, what a catch! That's a solid fish – good angling skills! I'm Vanessa, a branding artist, and I've been helping streamers like yourself build awesome channels. 
+I've actually designed branding for a few Regiment GG creators, and we have some mutual friends! I’ve got a ton of ideas brewing for how we could revamp your channel's look and feel, if you’re interested in chatting about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/b00nd0xkhg</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tooniceforher</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jm_feliciano_</t>
+  </si>
+  <si>
+    <t>Wow, that in-game view is *intense*! Really captures the speed and focus. I'm Vanessa, a branding artist and I've actually worked with a few folks over at Regiment GG—we have some mutual friends! 
+I've been helping creators like you grow their streams through visuals &amp; branding. I've got a ton of ideas about how we could revamp your channel’s look and feel - totally exciting stuff! Interested in chatting about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/defran_st</t>
+  </si>
+  <si>
+    <t>Wow, that's a stunning eagle sculpture! Such incredible detail, really captures the intensity. I'm Vanessa, a branding artist – I've been helping creators grow, especially in the Regiment GG space – actually worked with a few mutual friends!
+I’ve been brainstorming and i have alot of ideas how we can revamp your channel’s branding and content, make it even more captivating. Interested in chatting about some possibilities?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/xykoticcustoms</t>
+  </si>
+  <si>
+    <t>Woah, that red controller is seriously striking! Such a clean design. Hey, I'm Vanessa, a branding artist - I help streamers level up their visual identity. I've actually designed branding for a few Regiment GG creators and some of our mutual friends too!
+I’m kinda buzzing with ideas on how we could revamp your channel's look &amp; feel—maybe bring that same energy from the controller into your whole aesthetic? Would you be open to chatting about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/maurice_wahl92</t>
+  </si>
+  <si>
+    <t>Wow, that’s a seriously stunning shot of the Reef! The colors pop and the composition is on point. I'm Vanessa, a branding artist and I've been working with a few Regiment GG creators – we actually have some mutual friends! 
+I've helped a bunch of streamers level up their visual identity, and I'm already brainstorming how we could revamp your channel's look. I have alot of ideas to share with you how we can revamp your channel! Would you be interested in chatting about it sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ma_hew08</t>
+  </si>
+  <si>
+    <t>That whip is seriously clean! Love the stance and the subtle color scheme—total head-turner. Hey, I’m Vanessa, a branding artist, and I've been helping streamers like those over at Regiment GG really level up their look—I’ve worked with a few of your mutuals actually. 
+I’ve got tons of ideas brewing on how we could revamp your channel's brand and make it pop even more. Super excited about the potential – wanna chat about it sometime?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/makromatee</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kptnordmann</t>
+  </si>
+  <si>
+    <t>Love the dark aesthetic and clear schedule! That skull logo is really striking, instantly grabs attention. Hi, I’m Vanessa, a branding artist specializing in helping streamers like you level up. 
+I’ve actually designed branding for a few Regiment GG creators—we even have some mutual friends! I've got a ton of ideas on how we can revamp your channel’s look and feel, truly make it stand out. Interested in chatting about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/santosdionicios</t>
+  </si>
+  <si>
+    <t>Hey, love the dark aesthetic &amp; the skull—super striking! I’m Vanessa, a branding artist, and I’ve actually designed for a few Regiment GG creators—we have some mutual friends too. 
+Been thinking about your channel, and honestly, I have a ton of ideas to revamp the look &amp; feel. Wanna chat about it? I’m excited to share a bit!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/leonsiegus</t>
+  </si>
+  <si>
+    <t>Hey, that schedule looks solid and the aesthetic is *chef's kiss*! I'm Vanessa, a branding artist who helps streamers level up their visuals. I've actually designed for a bunch of Regiment GG creators and we have some mutual friends! 
+I’m really digging your vibe and I have a ton of ideas on how we could revamp your channel's look and feel. Wanna chat about some possibilities? Let me know if you're interested, I'm excited to share!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/richie_21._</t>
+  </si>
+  <si>
+    <t>Hey, loving the aesthetic! That skull graphic is really striking. I'm Vanessa, a branding artist who helps streamers level up their visual identity. I've actually designed branding for a bunch of Regiment GG creators and some of our mutual friends!
+I'm super excited by your stream schedule, and honestly have a ton of ideas how we could revamp your channel’s look &amp; feel. Interested in chatting about it?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/voidlord</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/khryn_tzu</t>
+  </si>
+  <si>
+    <t>Hey man, really diggin’ the setup – looks like serious dedication to the stream! I’m Vanessa, a branding artist, and I’ve actually designed for a few Regiment GG folks, even know some of your mutual friends. 
+Been watchin’ your content, and honestly, I have alot of ideas to revamp your channel look and feel—from overlays to maybe even a refreshed logo. Wanna chat and see if we vibe? Let me know if you're interested!</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/poke_surge</t>
+  </si>
+  <si>
+    <t>Woah, this prismatic design is absolutely captivating! As a branding artist, I'm kinda obsessed with the vibrant energy. I've actually designed branding for a few Regiment GG creators, and we have some mutual friends—small world!
+I’ve been really following your streaming journey &amp; I have alot of ideas how we can revamp your channel! I'd love to chat about how we can take your visual identity to the next level—interested in bouncing some ideas around?</t>
   </si>
 </sst>
 </file>
@@ -61,12 +638,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +664,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE2015-94EE-4CD3-8429-8AD466D06123}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="A2:L18"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,12 +996,12 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="118.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="103.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,6 +1022,2277 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C97" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>137</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>171</v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>176</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/InstgramOutput.xlsx
+++ b/InstgramOutput.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IG BOT PC 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM VISION Uipath3\LLM VISION Uipath3 Github\Instagram-Facebook-Outreaching-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB2151D-D5DC-457F-A595-6A92B40B88DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905DDAA-AB7B-4F5E-B2BE-00DE39A527E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB2CBD43-8825-4C50-9713-C3E6C0B6D132}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB2CBD43-8825-4C50-9713-C3E6C0B6D132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Profile url</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Sent Comment?</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/alahr68/</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/schoes84/</t>
   </si>
 </sst>
 </file>
@@ -101,9 +113,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +153,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -247,7 +259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE2015-94EE-4CD3-8429-8AD466D06123}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A109" sqref="A2:A109"/>
@@ -414,7 +426,7 @@
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,6 +447,84 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
